--- a/Appendix_tables.xlsx
+++ b/Appendix_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\R\506Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF1F8EE-7C5A-459C-9F4D-F7EFD1610B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6C3B6D-1E01-4E31-9925-AFC4CDD63DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7718" yWindow="0" windowWidth="21082" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix Table 1" sheetId="5" r:id="rId1"/>
@@ -22,34 +22,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="229">
   <si>
     <t>Lighting EUI (LTEUI)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>TotalEUI (TOTEUI)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CoolingEUI (CLEUI)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HeatingEUI (HTEUI)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ventilation EUI (VNEUI)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>coef</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>p-value</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>(Intercept)</t>
@@ -290,35 +290,35 @@
   </si>
   <si>
     <t>R^2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>RFTILT2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>NFLOOR2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>ATTIC2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>WLCNS2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>SKYLT2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>REFL2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>RENRFF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Variable
@@ -392,7 +392,7 @@
   </si>
   <si>
     <t>Building Characteristics</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>NFLOOR</t>
@@ -471,17 +471,11 @@
     <t>TINT</t>
   </si>
   <si>
-    <t>Tinted window glass</t>
-  </si>
-  <si>
-    <t>REFL</t>
-  </si>
-  <si>
     <t>Reflective window glass</t>
   </si>
   <si>
     <t>Occupancy</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>OWNOCC</t>
@@ -509,7 +503,7 @@
   </si>
   <si>
     <t>Climate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>PUBCLIM</t>
@@ -542,7 +536,7 @@
   </si>
   <si>
     <t>Renovations</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Roof replacement</t>
@@ -570,7 +564,7 @@
   </si>
   <si>
     <t>Response Variables (need to be devided by SQFT)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MFHTBTU</t>
@@ -587,29 +581,29 @@
   <si>
     <t>1 – 9
 12=10 to 14</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 – 4
 5=5 or more</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Cate</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7 – 50</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 – 100</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1=Yes
 2=No</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1=Vacant
@@ -630,117 +624,117 @@
 25=Retail other than mall
 26=Service
 91=Other</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1=Yes
 2=No
 3=Not applicable</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>124 – 802,588,047</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 – 417,233,255</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 – 121,963,882</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 – 180,731,980</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 – 49,404,857</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>TOTEUI</t>
   </si>
   <si>
     <t>HTEUI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>CLEUI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>LTEUI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>VNEUI</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Derived variable: Annual major fuels consumption (thous Btu)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Annual major fuels consumption per square feet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Modeled variable: Major fuels heating use (thous Btu)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Modeled variable: Major fuels cooling use (thous Btu)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Modeled variable: Major fuels ventilation use (thous Btu)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Modeled variable: Major fuels lighting use (thous Btu)</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Major fuels heating use per square feet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Major fuels cooling use per square feet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Major fuels lighting use per square feet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Major fuels ventilation use per square feet</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0.013 - 1710.839</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 - 477.64</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 - 136.58</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 - 88.68</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>0 - 145.82</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1=Yes
 0=No</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -758,17 +752,14 @@
       </rPr>
       <t>(Note that, here "No" is represented by 0, and these are numeric variables.)</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>type_RENOV</t>
   </si>
   <si>
     <t>type_RENRFF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>type_RENWIN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>type_RENLGT</t>
@@ -781,41 +772,41 @@
   </si>
   <si>
     <t>type_RENELC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations in roof</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations in window</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations in lighting</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations in HVAC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations in plumbing</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Category for renovations in electric</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1=Non-updated aged building
 2=New building
 3=Updated aged building</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1=Non-updated aged building
@@ -844,15 +835,40 @@
   </si>
   <si>
     <t>Appendix 1 Information for selected variables for predictors and responses.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Appendix 2 Results for full multiple linear regression models</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Appendix 3 Results for reduced multiple linear regression models</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_RENWIN</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note that the binary predictors with "2" as suffix mean "No", therefore, a positive parameter for that variable means decrease in consumption if the building is equiped with that.
+While the continuous upgrade predictors (like RENRFF) use "0" to indicate "No". A negative parameter for that variable means decrease in consumption if that aspect was upgraded.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFL</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinted window glass</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>NWKER</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLCEILHT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -863,13 +879,20 @@
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1456,139 +1479,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1609,19 +1632,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1630,23 +1653,32 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2019,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90947CC-F6B3-4D5A-B30C-238AB2DCAF80}">
   <dimension ref="A1:XFD55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2032,12 +2064,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
@@ -2054,12 +2086,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
@@ -2086,7 +2118,7 @@
         <v>114</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
@@ -2100,7 +2132,7 @@
         <v>115</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
@@ -2108,7 +2140,7 @@
         <v>116</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>117</v>
@@ -2118,8 +2150,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
+      <c r="A8" s="23" t="s">
+        <v>228</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>99</v>
@@ -2128,7 +2160,7 @@
         <v>119</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="111" x14ac:dyDescent="0.4">
@@ -2136,7 +2168,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>121</v>
@@ -2150,7 +2182,7 @@
         <v>109</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>110</v>
@@ -2170,7 +2202,7 @@
         <v>123</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="138.75" x14ac:dyDescent="0.4">
@@ -2178,7 +2210,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>104</v>
@@ -2192,7 +2224,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>107</v>
@@ -2206,13 +2238,13 @@
         <v>124</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="83.25" x14ac:dyDescent="0.4">
@@ -2220,7 +2252,7 @@
         <v>126</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>127</v>
@@ -2234,7 +2266,7 @@
         <v>129</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>130</v>
@@ -2248,74 +2280,74 @@
         <v>132</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>226</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
-        <v>134</v>
+      <c r="A18" s="23" t="s">
+        <v>225</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="249.75" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>118</v>
@@ -2329,46 +2361,46 @@
         <v>99</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
-        <v>70</v>
+      <c r="A24" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="83.25" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
@@ -2379,10 +2411,10 @@
         <v>99</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
@@ -2393,32 +2425,32 @@
         <v>99</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
@@ -2429,24 +2461,24 @@
         <v>99</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
@@ -2457,10 +2489,10 @@
         <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
@@ -2471,10 +2503,10 @@
         <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
@@ -2485,10 +2517,10 @@
         <v>99</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
@@ -2499,52 +2531,52 @@
         <v>99</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A39" s="11" t="s">
-        <v>205</v>
+      <c r="A39" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
@@ -18929,16 +18961,16 @@
     </row>
     <row r="40" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -35323,192 +35355,192 @@
     </row>
     <row r="41" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:16384" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A43" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:16384" x14ac:dyDescent="0.4">
-      <c r="A44" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:16384" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A50" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -35516,24 +35548,24 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A44:D44"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A44:D44"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC56552-528B-4F6C-99AB-3CB337419D82}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -35543,2846 +35575,2862 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="61.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B5" s="21">
         <v>0.48335040000000001</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
         <v>0.41093960000000002</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
         <v>0.1898995</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
         <v>0.47978609999999999</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
         <v>0.24974569999999999</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K5" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>-33.931462981319399</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>0.10563732489782</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>-14.086018589186301</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>9.85735660619266E-5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>-19.578261101026399</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="4">
         <v>7.4360681196658798E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="4">
         <v>-3.4512731182896501</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="4">
         <v>7.8012430838260594E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="4">
         <v>-0.22983288513531999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="4">
         <v>0.948461326367118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>16.156815572472599</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.7736142975320599E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.0401857160363104</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.8254317513130501E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>11.4186272254661</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3.5354774596818598E-3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.5983511489359996</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.1819182476398997E-10</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-0.79512432372873598</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.71851530848196399</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>70.446511367386194</v>
+        <v>16.156815572472599</v>
       </c>
       <c r="C7" s="1">
-        <v>0.26441013811831199</v>
+        <v>5.7736142975320599E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>17.812767958531499</v>
+        <v>4.0401857160363104</v>
       </c>
       <c r="E7" s="1">
-        <v>7.4682116489715299E-3</v>
+        <v>2.8254317513130501E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>28.105700075019801</v>
+        <v>11.4186272254661</v>
       </c>
       <c r="G7" s="1">
-        <v>0.119289189630053</v>
+        <v>3.5354774596818598E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>-1.7324236344041799</v>
+        <v>5.5983511489359996</v>
       </c>
       <c r="I7" s="1">
-        <v>0.57036144999830496</v>
+        <v>8.1819182476398997E-10</v>
       </c>
       <c r="J7" s="1">
-        <v>-1.6485111387342899</v>
+        <v>-0.79512432372873598</v>
       </c>
       <c r="K7" s="1">
-        <v>0.67644426126764001</v>
+        <v>0.71851530848196399</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>159.93393686545801</v>
+        <v>70.446511367386194</v>
       </c>
       <c r="C8" s="1">
-        <v>1.6655409776235199E-13</v>
+        <v>0.26441013811831199</v>
       </c>
       <c r="D8" s="1">
-        <v>4.7148090248649099</v>
+        <v>17.812767958531499</v>
       </c>
       <c r="E8" s="1">
-        <v>1.65051750912171E-2</v>
+        <v>7.4682116489715299E-3</v>
       </c>
       <c r="F8" s="1">
-        <v>20.5584480105559</v>
+        <v>28.105700075019801</v>
       </c>
       <c r="G8" s="1">
-        <v>2.3087370086874201E-3</v>
+        <v>0.119289189630053</v>
       </c>
       <c r="H8" s="1">
-        <v>5.5337266556871603</v>
+        <v>-1.7324236344041799</v>
       </c>
       <c r="I8" s="1">
-        <v>7.2275170680810301E-6</v>
+        <v>0.57036144999830496</v>
       </c>
       <c r="J8" s="1">
-        <v>3.2426300893995799</v>
+        <v>-1.6485111387342899</v>
       </c>
       <c r="K8" s="1">
-        <v>0.15827551375832999</v>
+        <v>0.67644426126764001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>-8.3336439978138804E-2</v>
+        <v>159.93393686545801</v>
       </c>
       <c r="C9" s="1">
-        <v>0.99522736294386105</v>
+        <v>1.6655409776235199E-13</v>
       </c>
       <c r="D9" s="1">
-        <v>5.5278951625083499</v>
+        <v>4.7148090248649099</v>
       </c>
       <c r="E9" s="1">
-        <v>5.3227100509251101E-3</v>
+        <v>1.65051750912171E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>15.9252934259529</v>
+        <v>20.5584480105559</v>
       </c>
       <c r="G9" s="1">
-        <v>4.2443376923739902E-2</v>
+        <v>2.3087370086874201E-3</v>
       </c>
       <c r="H9" s="1">
-        <v>-5.0800002114206597</v>
+        <v>5.5337266556871603</v>
       </c>
       <c r="I9" s="1">
-        <v>6.4178365430082605E-5</v>
+        <v>7.2275170680810301E-6</v>
       </c>
       <c r="J9" s="1">
-        <v>-3.4408551851970599</v>
+        <v>3.2426300893995799</v>
       </c>
       <c r="K9" s="1">
-        <v>0.17696746214105699</v>
+        <v>0.15827551375832999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>24.035714052372601</v>
+        <v>-8.3336439978138804E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>1.91963410147728E-2</v>
+        <v>0.99522736294386105</v>
       </c>
       <c r="D10" s="1">
-        <v>2.5048994669912701</v>
+        <v>5.5278951625083499</v>
       </c>
       <c r="E10" s="1">
-        <v>0.211991338189709</v>
+        <v>5.3227100509251101E-3</v>
       </c>
       <c r="F10" s="1">
-        <v>11.085753025379701</v>
+        <v>15.9252934259529</v>
       </c>
       <c r="G10" s="1">
-        <v>1.2056296258020301E-2</v>
+        <v>4.2443376923739902E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>11.0233328482682</v>
+        <v>-5.0800002114206597</v>
       </c>
       <c r="I10" s="1">
-        <v>6.6195709218456099E-16</v>
+        <v>6.4178365430082605E-5</v>
       </c>
       <c r="J10" s="1">
-        <v>1.73644431878167</v>
+        <v>-3.4408551851970599</v>
       </c>
       <c r="K10" s="1">
-        <v>0.44127665121253101</v>
+        <v>0.17696746214105699</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>11.467296084245399</v>
+        <v>24.035714052372601</v>
       </c>
       <c r="C11" s="1">
-        <v>0.15065196275451001</v>
+        <v>1.91963410147728E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>3.4571960691349202</v>
+        <v>2.5048994669912701</v>
       </c>
       <c r="E11" s="1">
-        <v>9.3467710940271703E-2</v>
+        <v>0.211991338189709</v>
       </c>
       <c r="F11" s="1">
-        <v>11.3552991507971</v>
+        <v>11.085753025379701</v>
       </c>
       <c r="G11" s="1">
-        <v>4.2925936038710798E-3</v>
+        <v>1.2056296258020301E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>1.2894694490468099</v>
+        <v>11.0233328482682</v>
       </c>
       <c r="I11" s="1">
-        <v>7.2795034291163005E-2</v>
+        <v>6.6195709218456099E-16</v>
       </c>
       <c r="J11" s="1">
-        <v>-3.0027533195195102</v>
+        <v>1.73644431878167</v>
       </c>
       <c r="K11" s="1">
-        <v>0.21259336908267601</v>
+        <v>0.44127665121253101</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>26.866427911098999</v>
+        <v>11.467296084245399</v>
       </c>
       <c r="C12" s="1">
-        <v>2.38634226206018E-3</v>
+        <v>0.15065196275451001</v>
       </c>
       <c r="D12" s="1">
-        <v>11.9682953171411</v>
+        <v>3.4571960691349202</v>
       </c>
       <c r="E12" s="1">
-        <v>1.14709010708183E-7</v>
+        <v>9.3467710940271703E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>20.471373566887099</v>
+        <v>11.3552991507971</v>
       </c>
       <c r="G12" s="1">
-        <v>3.5744690155666102E-6</v>
+        <v>4.2925936038710798E-3</v>
       </c>
       <c r="H12" s="1">
-        <v>-0.54919313011132798</v>
+        <v>1.2894694490468099</v>
       </c>
       <c r="I12" s="1">
-        <v>0.42418227332500003</v>
+        <v>7.2795034291163005E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>-3.5878402459078802</v>
+        <v>-3.0027533195195102</v>
       </c>
       <c r="K12" s="1">
-        <v>0.103180038601608</v>
+        <v>0.21259336908267601</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>18.1934632631285</v>
+        <v>26.866427911098999</v>
       </c>
       <c r="C13" s="1">
-        <v>4.2748219918914802E-2</v>
+        <v>2.38634226206018E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>6.3256629277051797</v>
+        <v>11.9682953171411</v>
       </c>
       <c r="E13" s="1">
-        <v>1.12975901062413E-3</v>
+        <v>1.14709010708183E-7</v>
       </c>
       <c r="F13" s="1">
-        <v>14.009492521809401</v>
+        <v>20.471373566887099</v>
       </c>
       <c r="G13" s="1">
-        <v>2.74656331107091E-3</v>
+        <v>3.5744690155666102E-6</v>
       </c>
       <c r="H13" s="1">
-        <v>0.88445765549560196</v>
+        <v>-0.54919313011132798</v>
       </c>
       <c r="I13" s="1">
-        <v>0.19337003090322299</v>
+        <v>0.42418227332500003</v>
       </c>
       <c r="J13" s="1">
-        <v>-3.2320092138516201</v>
+        <v>-3.5878402459078802</v>
       </c>
       <c r="K13" s="1">
-        <v>0.16190185343840399</v>
+        <v>0.103180038601608</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>217.633637267278</v>
+        <v>18.1934632631285</v>
       </c>
       <c r="C14" s="1">
-        <v>6.6344106050197303E-23</v>
+        <v>4.2748219918914802E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>15.5066625431572</v>
+        <v>6.3256629277051797</v>
       </c>
       <c r="E14" s="1">
-        <v>1.74079916443355E-9</v>
+        <v>1.12975901062413E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>19.419886120335001</v>
+        <v>14.009492521809401</v>
       </c>
       <c r="G14" s="1">
-        <v>1.08787841899017E-4</v>
+        <v>2.74656331107091E-3</v>
       </c>
       <c r="H14" s="1">
-        <v>11.5851460690401</v>
+        <v>0.88445765549560196</v>
       </c>
       <c r="I14" s="1">
-        <v>3.10041816992086E-17</v>
+        <v>0.19337003090322299</v>
       </c>
       <c r="J14" s="1">
-        <v>0.93382383952814796</v>
+        <v>-3.2320092138516201</v>
       </c>
       <c r="K14" s="1">
-        <v>0.69245474830387699</v>
+        <v>0.16190185343840399</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>92.609505730836602</v>
+        <v>217.633637267278</v>
       </c>
       <c r="C15" s="1">
-        <v>4.7231968823573999E-6</v>
+        <v>6.6344106050197303E-23</v>
       </c>
       <c r="D15" s="1">
-        <v>14.7683741609811</v>
+        <v>15.5066625431572</v>
       </c>
       <c r="E15" s="1">
-        <v>1.03726517737988E-4</v>
+        <v>1.74079916443355E-9</v>
       </c>
       <c r="F15" s="1">
-        <v>46.113608742937899</v>
+        <v>19.419886120335001</v>
       </c>
       <c r="G15" s="1">
-        <v>2.6618315671717003E-4</v>
+        <v>1.08787841899017E-4</v>
       </c>
       <c r="H15" s="1">
-        <v>11.474848329298799</v>
+        <v>11.5851460690401</v>
       </c>
       <c r="I15" s="1">
-        <v>9.4623667511380003E-7</v>
+        <v>3.10041816992086E-17</v>
       </c>
       <c r="J15" s="1">
-        <v>-3.8683550672413198</v>
+        <v>0.93382383952814796</v>
       </c>
       <c r="K15" s="1">
-        <v>0.109743751672537</v>
+        <v>0.69245474830387699</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>24.292581172125701</v>
+        <v>92.609505730836602</v>
       </c>
       <c r="C16" s="1">
-        <v>0.146146567962679</v>
+        <v>4.7231968823573999E-6</v>
       </c>
       <c r="D16" s="1">
-        <v>6.2387582259834904</v>
+        <v>14.7683741609811</v>
       </c>
       <c r="E16" s="1">
-        <v>9.3940943542704207E-3</v>
+        <v>1.03726517737988E-4</v>
       </c>
       <c r="F16" s="1">
-        <v>10.3403945900306</v>
+        <v>46.113608742937899</v>
       </c>
       <c r="G16" s="1">
-        <v>0.16409565173416099</v>
+        <v>2.6618315671717003E-4</v>
       </c>
       <c r="H16" s="1">
-        <v>4.9478976777761998</v>
+        <v>11.474848329298799</v>
       </c>
       <c r="I16" s="1">
-        <v>8.7549421644917899E-2</v>
+        <v>9.4623667511380003E-7</v>
       </c>
       <c r="J16" s="1">
-        <v>-1.3147065056002201</v>
+        <v>-3.8683550672413198</v>
       </c>
       <c r="K16" s="1">
-        <v>0.679040759695963</v>
+        <v>0.109743751672537</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>-10.9350759977553</v>
+        <v>24.292581172125701</v>
       </c>
       <c r="C17" s="1">
-        <v>0.500021130402729</v>
+        <v>0.146146567962679</v>
       </c>
       <c r="D17" s="1">
-        <v>2.4235688146007202</v>
+        <v>6.2387582259834904</v>
       </c>
       <c r="E17" s="1">
-        <v>0.271296922121261</v>
+        <v>9.3940943542704207E-3</v>
       </c>
       <c r="F17" s="1">
-        <v>-0.72646375989314205</v>
+        <v>10.3403945900306</v>
       </c>
       <c r="G17" s="1">
-        <v>0.93109450263826399</v>
+        <v>0.16409565173416099</v>
       </c>
       <c r="H17" s="1">
-        <v>-1.3744847421962501</v>
+        <v>4.9478976777761998</v>
       </c>
       <c r="I17" s="1">
-        <v>0.44959398120333399</v>
+        <v>8.7549421644917899E-2</v>
       </c>
       <c r="J17" s="1">
-        <v>-8.5710954785153799</v>
+        <v>-1.3147065056002201</v>
       </c>
       <c r="K17" s="1">
-        <v>5.5692553881425005E-4</v>
+        <v>0.679040759695963</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>49.839696669250102</v>
+        <v>-10.9350759977553</v>
       </c>
       <c r="C18" s="1">
-        <v>5.2144501540340397E-6</v>
+        <v>0.500021130402729</v>
       </c>
       <c r="D18" s="1">
-        <v>2.1468865444958598</v>
+        <v>2.4235688146007202</v>
       </c>
       <c r="E18" s="1">
-        <v>0.291114845008833</v>
+        <v>0.271296922121261</v>
       </c>
       <c r="F18" s="1">
-        <v>20.169511678865099</v>
+        <v>-0.72646375989314205</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0224348448469399E-5</v>
+        <v>0.93109450263826399</v>
       </c>
       <c r="H18" s="1">
-        <v>3.42857326054762</v>
+        <v>-1.3744847421962501</v>
       </c>
       <c r="I18" s="1">
-        <v>8.4330351634873102E-5</v>
+        <v>0.44959398120333399</v>
       </c>
       <c r="J18" s="1">
-        <v>1.90462812759707</v>
+        <v>-8.5710954785153799</v>
       </c>
       <c r="K18" s="1">
-        <v>0.43327357205019101</v>
+        <v>5.5692553881425005E-4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>48.388998473100003</v>
+        <v>49.839696669250102</v>
       </c>
       <c r="C19" s="1">
-        <v>1.5403911226083099E-2</v>
+        <v>5.2144501540340397E-6</v>
       </c>
       <c r="D19" s="1">
-        <v>12.401217706332099</v>
+        <v>2.1468865444958598</v>
       </c>
       <c r="E19" s="1">
-        <v>8.7730785727276603E-4</v>
+        <v>0.291114845008833</v>
       </c>
       <c r="F19" s="1">
-        <v>4.77161487847457</v>
+        <v>20.169511678865099</v>
       </c>
       <c r="G19" s="1">
-        <v>0.60138436049271304</v>
+        <v>1.0224348448469399E-5</v>
       </c>
       <c r="H19" s="1">
-        <v>1.2676009928591101</v>
+        <v>3.42857326054762</v>
       </c>
       <c r="I19" s="1">
-        <v>0.572584421481943</v>
+        <v>8.4330351634873102E-5</v>
       </c>
       <c r="J19" s="1">
-        <v>4.4910674978210903</v>
+        <v>1.90462812759707</v>
       </c>
       <c r="K19" s="1">
-        <v>0.253970582498107</v>
+        <v>0.43327357205019101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>-0.140590379783678</v>
+        <v>48.388998473100003</v>
       </c>
       <c r="C20" s="1">
-        <v>0.98802887297286401</v>
+        <v>1.5403911226083099E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>2.5896071736428201</v>
+        <v>12.401217706332099</v>
       </c>
       <c r="E20" s="1">
-        <v>0.13067201283386101</v>
+        <v>8.7730785727276603E-4</v>
       </c>
       <c r="F20" s="1">
-        <v>2.6684834963308002</v>
+        <v>4.77161487847457</v>
       </c>
       <c r="G20" s="1">
-        <v>0.53481512857330804</v>
+        <v>0.60138436049271304</v>
       </c>
       <c r="H20" s="1">
-        <v>1.4395512083053601</v>
+        <v>1.2676009928591101</v>
       </c>
       <c r="I20" s="1">
-        <v>7.5849345408404004E-2</v>
+        <v>0.572584421481943</v>
       </c>
       <c r="J20" s="1">
-        <v>1.1454325113144801</v>
+        <v>4.4910674978210903</v>
       </c>
       <c r="K20" s="1">
-        <v>0.63163339798915197</v>
+        <v>0.253970582498107</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>14.5840313117116</v>
+        <v>-0.140590379783678</v>
       </c>
       <c r="C21" s="1">
-        <v>5.2359195392274002E-2</v>
+        <v>0.98802887297286401</v>
       </c>
       <c r="D21" s="1">
-        <v>3.9148224722244098</v>
+        <v>2.5896071736428201</v>
       </c>
       <c r="E21" s="1">
-        <v>3.11413453410289E-2</v>
+        <v>0.13067201283386101</v>
       </c>
       <c r="F21" s="1">
-        <v>12.314470547666099</v>
+        <v>2.6684834963308002</v>
       </c>
       <c r="G21" s="1">
-        <v>7.3570997358678603E-4</v>
+        <v>0.53481512857330804</v>
       </c>
       <c r="H21" s="1">
-        <v>-0.65329296903524403</v>
+        <v>1.4395512083053601</v>
       </c>
       <c r="I21" s="1">
-        <v>0.34461479209129497</v>
+        <v>7.5849345408404004E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>3.70140633240785E-2</v>
+        <v>1.1454325113144801</v>
       </c>
       <c r="K21" s="1">
-        <v>0.98736826514762699</v>
+        <v>0.63163339798915197</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>25.896636277781099</v>
+        <v>14.5840313117116</v>
       </c>
       <c r="C22" s="1">
-        <v>0.172844554891982</v>
+        <v>5.2359195392274002E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>5.9830208619736096</v>
+        <v>3.9148224722244098</v>
       </c>
       <c r="E22" s="1">
-        <v>2.8025709828050201E-2</v>
+        <v>3.11413453410289E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>6.4951986512993702</v>
+        <v>12.314470547666099</v>
       </c>
       <c r="G22" s="1">
-        <v>0.47861348727799602</v>
+        <v>7.3570997358678603E-4</v>
       </c>
       <c r="H22" s="1">
-        <v>-3.23493098992921</v>
+        <v>-0.65329296903524403</v>
       </c>
       <c r="I22" s="1">
-        <v>9.1228549075732697E-3</v>
+        <v>0.34461479209129497</v>
       </c>
       <c r="J22" s="1">
-        <v>-0.80832409132544303</v>
+        <v>3.70140633240785E-2</v>
       </c>
       <c r="K22" s="1">
-        <v>0.74476198618488498</v>
+        <v>0.98736826514762699</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>-9.3717425237090302E-5</v>
+        <v>25.896636277781099</v>
       </c>
       <c r="C23" s="1">
-        <v>3.6463276028051398E-7</v>
+        <v>0.172844554891982</v>
       </c>
       <c r="D23" s="1">
-        <v>-1.1830036084053301E-5</v>
+        <v>5.9830208619736096</v>
       </c>
       <c r="E23" s="1">
-        <v>7.5388453593451503E-6</v>
+        <v>2.8025709828050201E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>-9.5751579774019601E-6</v>
+        <v>6.4951986512993702</v>
       </c>
       <c r="G23" s="1">
-        <v>0.28934272164646102</v>
+        <v>0.47861348727799602</v>
       </c>
       <c r="H23" s="1">
-        <v>-3.8923863852334696E-6</v>
+        <v>-3.23493098992921</v>
       </c>
       <c r="I23" s="1">
-        <v>2.6487556836446401E-2</v>
+        <v>9.1228549075732697E-3</v>
       </c>
       <c r="J23" s="1">
-        <v>-3.3321952850622999E-6</v>
+        <v>-0.80832409132544303</v>
       </c>
       <c r="K23" s="1">
-        <v>0.10243883330857501</v>
+        <v>0.74476198618488498</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>-8.0343972358104505</v>
+        <v>-9.3717425237090302E-5</v>
       </c>
       <c r="C24" s="1">
-        <v>2.9942498358839401E-2</v>
+        <v>3.6463276028051398E-7</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.87790743214551104</v>
+        <v>-1.1830036084053301E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>9.3846056015682994E-2</v>
+        <v>7.5388453593451503E-6</v>
       </c>
       <c r="F24" s="1">
-        <v>-1.20794356054498</v>
+        <v>-9.5751579774019601E-6</v>
       </c>
       <c r="G24" s="1">
-        <v>0.493892701593523</v>
+        <v>0.28934272164646102</v>
       </c>
       <c r="H24" s="1">
-        <v>0.23150496455052899</v>
+        <v>-3.8923863852334696E-6</v>
       </c>
       <c r="I24" s="1">
-        <v>0.58119244648565305</v>
+        <v>2.6487556836446401E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>0.10801657233544899</v>
+        <v>-3.3321952850622999E-6</v>
       </c>
       <c r="K24" s="1">
-        <v>0.80181680164357705</v>
+        <v>0.10243883330857501</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>-12.899458976004199</v>
+        <v>-8.0343972358104505</v>
       </c>
       <c r="C25" s="1">
-        <v>1.9006443216323499E-2</v>
+        <v>2.9942498358839401E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>-1.4072173479900101</v>
+        <v>-0.87790743214551104</v>
       </c>
       <c r="E25" s="1">
-        <v>5.3670924036088703E-2</v>
+        <v>9.3846056015682994E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>-1.8399254249002499</v>
+        <v>-1.20794356054498</v>
       </c>
       <c r="G25" s="1">
-        <v>0.56186805895641001</v>
+        <v>0.493892701593523</v>
       </c>
       <c r="H25" s="1">
-        <v>-0.86019089530350801</v>
+        <v>0.23150496455052899</v>
       </c>
       <c r="I25" s="1">
-        <v>0.132733273861706</v>
+        <v>0.58119244648565305</v>
       </c>
       <c r="J25" s="1">
-        <v>9.0848462760200095E-3</v>
+        <v>0.10801657233544899</v>
       </c>
       <c r="K25" s="1">
-        <v>0.98687632998198105</v>
+        <v>0.80181680164357705</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>-12.995893723633699</v>
+        <v>-12.899458976004199</v>
       </c>
       <c r="C26" s="1">
-        <v>6.2861175326794097E-2</v>
+        <v>1.9006443216323499E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.6819875744509698</v>
+        <v>-1.4072173479900101</v>
       </c>
       <c r="E26" s="1">
-        <v>1.94405608614676E-5</v>
+        <v>5.3670924036088703E-2</v>
       </c>
       <c r="F26" s="1">
-        <v>2.9598250436647602</v>
+        <v>-1.8399254249002499</v>
       </c>
       <c r="G26" s="1">
-        <v>0.46970497549868501</v>
+        <v>0.56186805895641001</v>
       </c>
       <c r="H26" s="1">
-        <v>-0.78801353722862</v>
+        <v>-0.86019089530350801</v>
       </c>
       <c r="I26" s="1">
-        <v>0.27772623709798699</v>
+        <v>0.132733273861706</v>
       </c>
       <c r="J26" s="1">
-        <v>-0.87052451861286595</v>
+        <v>9.0848462760200095E-3</v>
       </c>
       <c r="K26" s="1">
-        <v>0.26066548672645201</v>
+        <v>0.98687632998198105</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>-3.82104540882778E-2</v>
+        <v>-12.995893723633699</v>
       </c>
       <c r="C27" s="1">
-        <v>0.99565815969793603</v>
+        <v>6.2861175326794097E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.4371837221024899</v>
+        <v>-3.6819875744509698</v>
       </c>
       <c r="E27" s="1">
-        <v>0.119862150188235</v>
+        <v>1.94405608614676E-5</v>
       </c>
       <c r="F27" s="1">
-        <v>4.3733275825204601</v>
+        <v>2.9598250436647602</v>
       </c>
       <c r="G27" s="1">
-        <v>0.32349049105882399</v>
+        <v>0.46970497549868501</v>
       </c>
       <c r="H27" s="1">
-        <v>0.363329715580469</v>
+        <v>-0.78801353722862</v>
       </c>
       <c r="I27" s="1">
-        <v>0.72142506386349003</v>
+        <v>0.27772623709798699</v>
       </c>
       <c r="J27" s="1">
-        <v>-0.76131837211761799</v>
+        <v>-0.87052451861286595</v>
       </c>
       <c r="K27" s="1">
-        <v>0.17163365151805701</v>
+        <v>0.26066548672645201</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>-16.087179850976799</v>
+        <v>-3.82104540882778E-2</v>
       </c>
       <c r="C28" s="1">
-        <v>6.6012292234125206E-2</v>
+        <v>0.99565815969793603</v>
       </c>
       <c r="D28" s="1">
-        <v>-2.4670179913719901</v>
+        <v>-2.4371837221024899</v>
       </c>
       <c r="E28" s="1">
-        <v>2.7582870978725301E-2</v>
+        <v>0.119862150188235</v>
       </c>
       <c r="F28" s="1">
-        <v>-3.72311266167788</v>
+        <v>4.3733275825204601</v>
       </c>
       <c r="G28" s="1">
-        <v>0.45005883528343998</v>
+        <v>0.32349049105882399</v>
       </c>
       <c r="H28" s="1">
-        <v>1.05385072591947</v>
+        <v>0.363329715580469</v>
       </c>
       <c r="I28" s="1">
-        <v>0.50210742587280899</v>
+        <v>0.72142506386349003</v>
       </c>
       <c r="J28" s="1">
-        <v>3.7543888902337899</v>
+        <v>-0.76131837211761799</v>
       </c>
       <c r="K28" s="1">
-        <v>0.13939816044584299</v>
+        <v>0.17163365151805701</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>-3.7089892476623998</v>
+        <v>-16.087179850976799</v>
       </c>
       <c r="C29" s="1">
-        <v>0.65699212607597401</v>
+        <v>6.6012292234125206E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.108614597373343</v>
+        <v>-2.4670179913719901</v>
       </c>
       <c r="E29" s="1">
-        <v>0.93450913086551401</v>
+        <v>2.7582870978725301E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>-2.06180338006416</v>
+        <v>-3.72311266167788</v>
       </c>
       <c r="G29" s="1">
-        <v>0.63155681323944002</v>
+        <v>0.45005883528343998</v>
       </c>
       <c r="H29" s="1">
-        <v>0.40170234703193303</v>
+        <v>1.05385072591947</v>
       </c>
       <c r="I29" s="1">
-        <v>0.80772457087640503</v>
+        <v>0.50210742587280899</v>
       </c>
       <c r="J29" s="1">
-        <v>0.12273846724838</v>
+        <v>3.7543888902337899</v>
       </c>
       <c r="K29" s="1">
-        <v>0.92126256822754005</v>
+        <v>0.13939816044584299</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>0.51138570008427198</v>
+        <v>-3.7089892476623998</v>
       </c>
       <c r="C30" s="1">
-        <v>0.96775630304972604</v>
+        <v>0.65699212607597401</v>
       </c>
       <c r="D30" s="1">
-        <v>-2.1526125934945699</v>
+        <v>-0.108614597373343</v>
       </c>
       <c r="E30" s="1">
-        <v>0.26215791991593101</v>
+        <v>0.93450913086551401</v>
       </c>
       <c r="F30" s="1">
-        <v>5.3353454597841896</v>
+        <v>-2.06180338006416</v>
       </c>
       <c r="G30" s="1">
-        <v>0.41762503378628202</v>
+        <v>0.63155681323944002</v>
       </c>
       <c r="H30" s="1">
-        <v>0.60616259983377696</v>
+        <v>0.40170234703193303</v>
       </c>
       <c r="I30" s="1">
-        <v>0.70363227372379</v>
+        <v>0.80772457087640503</v>
       </c>
       <c r="J30" s="1">
-        <v>0.48147670925493102</v>
+        <v>0.12273846724838</v>
       </c>
       <c r="K30" s="1">
-        <v>0.70171673891313102</v>
+        <v>0.92126256822754005</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>-1.0371737237019001</v>
+        <v>0.51138570008427198</v>
       </c>
       <c r="C31" s="1">
-        <v>0.92261786152221703</v>
+        <v>0.96775630304972604</v>
       </c>
       <c r="D31" s="1">
-        <v>-5.1599055650715702</v>
+        <v>-2.1526125934945699</v>
       </c>
       <c r="E31" s="1">
-        <v>5.4880983855695004E-4</v>
+        <v>0.26215791991593101</v>
       </c>
       <c r="F31" s="1">
-        <v>3.86362308591529</v>
+        <v>5.3353454597841896</v>
       </c>
       <c r="G31" s="1">
-        <v>0.40758264776005299</v>
+        <v>0.41762503378628202</v>
       </c>
       <c r="H31" s="1">
-        <v>-1.85003038331806</v>
+        <v>0.60616259983377696</v>
       </c>
       <c r="I31" s="1">
-        <v>0.239314817350435</v>
+        <v>0.70363227372379</v>
       </c>
       <c r="J31" s="1">
-        <v>0.72622934749866197</v>
+        <v>0.48147670925493102</v>
       </c>
       <c r="K31" s="1">
-        <v>0.68341015933298099</v>
+        <v>0.70171673891313102</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>-1.62959169518812</v>
+        <v>-1.0371737237019001</v>
       </c>
       <c r="C32" s="1">
-        <v>0.89414862070295897</v>
+        <v>0.92261786152221703</v>
       </c>
       <c r="D32" s="1">
-        <v>-1.1564287269304001</v>
+        <v>-5.1599055650715702</v>
       </c>
       <c r="E32" s="1">
-        <v>0.41963151020386102</v>
+        <v>5.4880983855695004E-4</v>
       </c>
       <c r="F32" s="1">
-        <v>-2.5514238456043601</v>
+        <v>3.86362308591529</v>
       </c>
       <c r="G32" s="1">
-        <v>0.61417929002876803</v>
+        <v>0.40758264776005299</v>
       </c>
       <c r="H32" s="1">
-        <v>2.1097355834825402</v>
+        <v>-1.85003038331806</v>
       </c>
       <c r="I32" s="1">
-        <v>6.1429400763809698E-2</v>
+        <v>0.239314817350435</v>
       </c>
       <c r="J32" s="1">
-        <v>-0.35332139277199498</v>
+        <v>0.72622934749866197</v>
       </c>
       <c r="K32" s="1">
-        <v>0.72363073036233305</v>
+        <v>0.68341015933298099</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>-0.60387661436684004</v>
+        <v>-1.62959169518812</v>
       </c>
       <c r="C33" s="1">
-        <v>0.86261719140049498</v>
+        <v>0.89414862070295897</v>
       </c>
       <c r="D33" s="1">
-        <v>-5.3597900740238298E-2</v>
+        <v>-1.1564287269304001</v>
       </c>
       <c r="E33" s="1">
-        <v>0.922142949011723</v>
+        <v>0.41963151020386102</v>
       </c>
       <c r="F33" s="1">
-        <v>-0.72343396060015697</v>
+        <v>-2.5514238456043601</v>
       </c>
       <c r="G33" s="1">
-        <v>0.77592076471248805</v>
+        <v>0.61417929002876803</v>
       </c>
       <c r="H33" s="1">
-        <v>0.122567321836881</v>
+        <v>2.1097355834825402</v>
       </c>
       <c r="I33" s="1">
-        <v>0.80263485028979797</v>
+        <v>6.1429400763809698E-2</v>
       </c>
       <c r="J33" s="1">
-        <v>-0.59775509879570299</v>
+        <v>-0.35332139277199498</v>
       </c>
       <c r="K33" s="1">
-        <v>0.10411541655649401</v>
+        <v>0.72363073036233305</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>9.3205899772222697E-2</v>
+        <v>-0.60387661436684004</v>
       </c>
       <c r="C34" s="1">
-        <v>0.98197955921652502</v>
+        <v>0.86261719140049498</v>
       </c>
       <c r="D34" s="1">
-        <v>0.33323518705209698</v>
+        <v>-5.3597900740238298E-2</v>
       </c>
       <c r="E34" s="1">
-        <v>0.461594625172837</v>
+        <v>0.922142949011723</v>
       </c>
       <c r="F34" s="1">
-        <v>-0.47057442993551701</v>
+        <v>-0.72343396060015697</v>
       </c>
       <c r="G34" s="1">
-        <v>0.70418541063781404</v>
+        <v>0.77592076471248805</v>
       </c>
       <c r="H34" s="1">
-        <v>0.51118603894593695</v>
+        <v>0.122567321836881</v>
       </c>
       <c r="I34" s="1">
-        <v>0.129408219878999</v>
+        <v>0.80263485028979797</v>
       </c>
       <c r="J34" s="1">
-        <v>-0.49239015691017401</v>
+        <v>-0.59775509879570299</v>
       </c>
       <c r="K34" s="1">
-        <v>0.119717942496421</v>
+        <v>0.10411541655649401</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>0.34438338260759699</v>
+        <v>9.3205899772222697E-2</v>
       </c>
       <c r="C35" s="1">
-        <v>0.151516304514238</v>
+        <v>0.98197955921652502</v>
       </c>
       <c r="D35" s="1">
-        <v>2.90651050164644E-2</v>
+        <v>0.33323518705209698</v>
       </c>
       <c r="E35" s="1">
-        <v>0.33827792229522202</v>
+        <v>0.461594625172837</v>
       </c>
       <c r="F35" s="1">
-        <v>0.379586962805678</v>
+        <v>-0.47057442993551701</v>
       </c>
       <c r="G35" s="1">
-        <v>4.6130865374365204E-3</v>
+        <v>0.70418541063781404</v>
       </c>
       <c r="H35" s="1">
-        <v>-1.2415426604809999E-2</v>
+        <v>0.51118603894593695</v>
       </c>
       <c r="I35" s="1">
-        <v>0.49397014736884998</v>
+        <v>0.129408219878999</v>
       </c>
       <c r="J35" s="1">
-        <v>-3.8309038187323598E-2</v>
+        <v>-0.49239015691017401</v>
       </c>
       <c r="K35" s="1">
-        <v>0.46555860387090803</v>
+        <v>0.119717942496421</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>-9.1019607005924605</v>
+        <v>0.34438338260759699</v>
       </c>
       <c r="C36" s="1">
-        <v>6.3498856338749396E-2</v>
+        <v>0.151516304514238</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.91602872998440799</v>
+        <v>2.90651050164644E-2</v>
       </c>
       <c r="E36" s="1">
-        <v>0.125726597391811</v>
+        <v>0.33827792229522202</v>
       </c>
       <c r="F36" s="1">
-        <v>-1.0687501095560801</v>
+        <v>0.379586962805678</v>
       </c>
       <c r="G36" s="1">
-        <v>0.49407033726416599</v>
+        <v>4.6130865374365204E-3</v>
       </c>
       <c r="H36" s="1">
-        <v>-0.95936479034543598</v>
+        <v>-1.2415426604809999E-2</v>
       </c>
       <c r="I36" s="1">
-        <v>1.1880032214668001E-2</v>
+        <v>0.49397014736884998</v>
       </c>
       <c r="J36" s="1">
-        <v>-0.110022956942811</v>
+        <v>-3.8309038187323598E-2</v>
       </c>
       <c r="K36" s="1">
-        <v>0.84628434794685203</v>
+        <v>0.46555860387090803</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
-        <v>-10.988534669864</v>
+        <v>-9.1019607005924605</v>
       </c>
       <c r="C37" s="1">
-        <v>7.0924511901423695E-2</v>
+        <v>6.3498856338749396E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>-0.85355174858924698</v>
+        <v>-0.91602872998440799</v>
       </c>
       <c r="E37" s="1">
-        <v>0.19915450897547701</v>
+        <v>0.125726597391811</v>
       </c>
       <c r="F37" s="1">
-        <v>-0.36368563696922201</v>
+        <v>-1.0687501095560801</v>
       </c>
       <c r="G37" s="1">
-        <v>0.85512498728528197</v>
+        <v>0.49407033726416599</v>
       </c>
       <c r="H37" s="1">
-        <v>-0.84732587767305201</v>
+        <v>-0.95936479034543598</v>
       </c>
       <c r="I37" s="1">
-        <v>4.22757469273395E-2</v>
+        <v>1.1880032214668001E-2</v>
       </c>
       <c r="J37" s="1">
-        <v>-0.254784462729574</v>
+        <v>-0.110022956942811</v>
       </c>
       <c r="K37" s="1">
-        <v>0.62317676510651998</v>
+        <v>0.84628434794685203</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>1.2369774192861E-2</v>
+        <v>-10.988534669864</v>
       </c>
       <c r="C38" s="1">
-        <v>0.851369597587185</v>
+        <v>7.0924511901423695E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>1.0760614669718799E-3</v>
+        <v>-0.85355174858924698</v>
       </c>
       <c r="E38" s="1">
-        <v>0.90575840105059702</v>
+        <v>0.19915450897547701</v>
       </c>
       <c r="F38" s="1">
-        <v>-2.0166885112070699E-2</v>
+        <v>-0.36368563696922201</v>
       </c>
       <c r="G38" s="1">
-        <v>0.49165409430667301</v>
+        <v>0.85512498728528197</v>
       </c>
       <c r="H38" s="1">
-        <v>-1.6067655783881299E-3</v>
+        <v>-0.84732587767305201</v>
       </c>
       <c r="I38" s="1">
-        <v>0.74763346842268397</v>
+        <v>4.22757469273395E-2</v>
       </c>
       <c r="J38" s="1">
-        <v>-3.0052721224916698E-3</v>
+        <v>-0.254784462729574</v>
       </c>
       <c r="K38" s="1">
-        <v>0.65487146919262496</v>
+        <v>0.62317676510651998</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
-        <v>0.86202998082781501</v>
+        <v>1.2369774192861E-2</v>
       </c>
       <c r="C39" s="1">
-        <v>0.91204885914096701</v>
+        <v>0.851369597587185</v>
       </c>
       <c r="D39" s="1">
-        <v>-1.3857469666469799</v>
+        <v>1.0760614669718799E-3</v>
       </c>
       <c r="E39" s="1">
-        <v>0.246843719153023</v>
+        <v>0.90575840105059702</v>
       </c>
       <c r="F39" s="1">
-        <v>-2.8343473611529099E-2</v>
+        <v>-2.0166885112070699E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>0.99472941765894096</v>
+        <v>0.49165409430667301</v>
       </c>
       <c r="H39" s="1">
-        <v>0.31516355358301901</v>
+        <v>-1.6067655783881299E-3</v>
       </c>
       <c r="I39" s="1">
-        <v>0.61150948701680796</v>
+        <v>0.74763346842268397</v>
       </c>
       <c r="J39" s="1">
-        <v>0.69156115375447602</v>
+        <v>-3.0052721224916698E-3</v>
       </c>
       <c r="K39" s="1">
-        <v>0.41193130794751898</v>
+        <v>0.65487146919262496</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
-        <v>-5.8687963273474697</v>
+        <v>0.86202998082781501</v>
       </c>
       <c r="C40" s="1">
-        <v>0.13199408668513199</v>
+        <v>0.91204885914096701</v>
       </c>
       <c r="D40" s="1">
-        <v>0.46232086573395398</v>
+        <v>-1.3857469666469799</v>
       </c>
       <c r="E40" s="1">
-        <v>0.43908594621615399</v>
+        <v>0.246843719153023</v>
       </c>
       <c r="F40" s="1">
-        <v>1.07085124795904E-2</v>
+        <v>-2.8343473611529099E-2</v>
       </c>
       <c r="G40" s="1">
-        <v>0.99395553593193597</v>
+        <v>0.99472941765894096</v>
       </c>
       <c r="H40" s="1">
-        <v>-0.25225710246008798</v>
+        <v>0.31516355358301901</v>
       </c>
       <c r="I40" s="1">
-        <v>0.53329146138956196</v>
+        <v>0.61150948701680796</v>
       </c>
       <c r="J40" s="1">
-        <v>0.20826797258407401</v>
+        <v>0.69156115375447602</v>
       </c>
       <c r="K40" s="1">
-        <v>0.55515306102076301</v>
+        <v>0.41193130794751898</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1">
-        <v>-1.46039032229545</v>
+        <v>-5.8687963273474697</v>
       </c>
       <c r="C41" s="1">
-        <v>0.80206753618766702</v>
+        <v>0.13199408668513199</v>
       </c>
       <c r="D41" s="1">
-        <v>0.45282622778362702</v>
+        <v>0.46232086573395398</v>
       </c>
       <c r="E41" s="1">
-        <v>0.378739339471384</v>
+        <v>0.43908594621615399</v>
       </c>
       <c r="F41" s="1">
-        <v>-2.23115821466526</v>
+        <v>1.07085124795904E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.33752115680219802</v>
+        <v>0.99395553593193597</v>
       </c>
       <c r="H41" s="1">
-        <v>-0.779729539368332</v>
+        <v>-0.25225710246008798</v>
       </c>
       <c r="I41" s="1">
-        <v>0.12019576493768901</v>
+        <v>0.53329146138956196</v>
       </c>
       <c r="J41" s="1">
-        <v>0.70533197918636004</v>
+        <v>0.20826797258407401</v>
       </c>
       <c r="K41" s="1">
-        <v>0.37463160814391699</v>
+        <v>0.55515306102076301</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
-        <v>-9.6930610900319305</v>
+        <v>-1.46039032229545</v>
       </c>
       <c r="C42" s="1">
-        <v>4.8960257777694097E-2</v>
+        <v>0.80206753618766702</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.86825463696109695</v>
+        <v>0.45282622778362702</v>
       </c>
       <c r="E42" s="1">
-        <v>0.320704578214205</v>
+        <v>0.378739339471384</v>
       </c>
       <c r="F42" s="1">
-        <v>-3.7524978047705999</v>
+        <v>-2.23115821466526</v>
       </c>
       <c r="G42" s="1">
-        <v>0.14196746132962901</v>
+        <v>0.33752115680219802</v>
       </c>
       <c r="H42" s="1">
-        <v>-0.66425273193225598</v>
+        <v>-0.779729539368332</v>
       </c>
       <c r="I42" s="1">
-        <v>0.195368556161372</v>
+        <v>0.12019576493768901</v>
       </c>
       <c r="J42" s="1">
-        <v>-0.23998985508537299</v>
+        <v>0.70533197918636004</v>
       </c>
       <c r="K42" s="1">
-        <v>0.78959575043239105</v>
+        <v>0.37463160814391699</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1">
-        <v>20.869521040881299</v>
+        <v>-9.6930610900319305</v>
       </c>
       <c r="C43" s="1">
-        <v>0.43150698004861898</v>
+        <v>4.8960257777694097E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>-2.8204358371944802</v>
+        <v>-0.86825463696109695</v>
       </c>
       <c r="E43" s="1">
-        <v>0.33899585410240402</v>
+        <v>0.320704578214205</v>
       </c>
       <c r="F43" s="1">
-        <v>0.211082971086513</v>
+        <v>-3.7524978047705999</v>
       </c>
       <c r="G43" s="1">
-        <v>0.96410580544440905</v>
+        <v>0.14196746132962901</v>
       </c>
       <c r="H43" s="1">
-        <v>-0.45506994790402699</v>
+        <v>-0.66425273193225598</v>
       </c>
       <c r="I43" s="1">
-        <v>0.68552869025239405</v>
+        <v>0.195368556161372</v>
       </c>
       <c r="J43" s="1">
-        <v>0.61970217231953995</v>
+        <v>-0.23998985508537299</v>
       </c>
       <c r="K43" s="1">
-        <v>0.70086583767313004</v>
+        <v>0.78959575043239105</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>42.699050663457598</v>
+        <v>20.869521040881299</v>
       </c>
       <c r="C44" s="1">
-        <v>0.57630304924730702</v>
+        <v>0.43150698004861898</v>
       </c>
       <c r="D44" s="1">
-        <v>9.4587081869823703E-2</v>
+        <v>-2.8204358371944802</v>
       </c>
       <c r="E44" s="1">
-        <v>0.97662682185217797</v>
+        <v>0.33899585410240402</v>
       </c>
       <c r="F44" s="1">
-        <v>-10.7531843959006</v>
+        <v>0.211082971086513</v>
       </c>
       <c r="G44" s="1">
-        <v>1.7143540967395001E-4</v>
+        <v>0.96410580544440905</v>
       </c>
       <c r="H44" s="1">
-        <v>17.2957735053525</v>
+        <v>-0.45506994790402699</v>
       </c>
       <c r="I44" s="1">
-        <v>0.38681775772990601</v>
+        <v>0.68552869025239405</v>
       </c>
       <c r="J44" s="1">
-        <v>-1.5866560366446001</v>
+        <v>0.61970217231953995</v>
       </c>
       <c r="K44" s="1">
-        <v>0.15042866009306499</v>
+        <v>0.70086583767313004</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
-        <v>2.1763975638018298</v>
+        <v>42.699050663457598</v>
       </c>
       <c r="C45" s="1">
-        <v>0.83320106807080396</v>
+        <v>0.57630304924730702</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.91455073432276701</v>
+        <v>9.4587081869823703E-2</v>
       </c>
       <c r="E45" s="1">
-        <v>0.454646207079207</v>
+        <v>0.97662682185217797</v>
       </c>
       <c r="F45" s="1">
-        <v>-0.72432342820226703</v>
+        <v>-10.7531843959006</v>
       </c>
       <c r="G45" s="1">
-        <v>0.77692485597713601</v>
+        <v>1.7143540967395001E-4</v>
       </c>
       <c r="H45" s="1">
-        <v>-0.159275331038779</v>
+        <v>17.2957735053525</v>
       </c>
       <c r="I45" s="1">
-        <v>0.89736014770850203</v>
+        <v>0.38681775772990601</v>
       </c>
       <c r="J45" s="1">
-        <v>0.30970954617254298</v>
+        <v>-1.5866560366446001</v>
       </c>
       <c r="K45" s="1">
-        <v>0.748997267338253</v>
+        <v>0.15042866009306499</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
-        <v>7.5775538248757899</v>
+        <v>2.1763975638018298</v>
       </c>
       <c r="C46" s="1">
-        <v>0.257123231558263</v>
+        <v>0.83320106807080396</v>
       </c>
       <c r="D46" s="1">
-        <v>0.23741949632453599</v>
+        <v>-0.91455073432276701</v>
       </c>
       <c r="E46" s="1">
-        <v>0.820143932339089</v>
+        <v>0.454646207079207</v>
       </c>
       <c r="F46" s="1">
-        <v>1.6047964162956401</v>
+        <v>-0.72432342820226703</v>
       </c>
       <c r="G46" s="1">
-        <v>0.49196267115534498</v>
+        <v>0.77692485597713601</v>
       </c>
       <c r="H46" s="1">
-        <v>-1.7427736367828101E-2</v>
+        <v>-0.159275331038779</v>
       </c>
       <c r="I46" s="1">
-        <v>0.98121391769215904</v>
+        <v>0.89736014770850203</v>
       </c>
       <c r="J46" s="1">
-        <v>-0.354740669742105</v>
+        <v>0.30970954617254298</v>
       </c>
       <c r="K46" s="1">
-        <v>0.54452336624020103</v>
+        <v>0.748997267338253</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44250993177190501</v>
+        <v>7.5775538248757899</v>
       </c>
       <c r="C47" s="1">
-        <v>0.96830134401253798</v>
+        <v>0.257123231558263</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.60797554342798499</v>
+        <v>0.23741949632453599</v>
       </c>
       <c r="E47" s="1">
-        <v>0.66501323107038102</v>
+        <v>0.820143932339089</v>
       </c>
       <c r="F47" s="1">
-        <v>1.5741809984138999</v>
+        <v>1.6047964162956401</v>
       </c>
       <c r="G47" s="1">
-        <v>0.751666727856244</v>
+        <v>0.49196267115534498</v>
       </c>
       <c r="H47" s="1">
-        <v>-1.5580819327030501E-2</v>
+        <v>-1.7427736367828101E-2</v>
       </c>
       <c r="I47" s="1">
-        <v>0.98689983999047604</v>
+        <v>0.98121391769215904</v>
       </c>
       <c r="J47" s="1">
-        <v>-0.20048986186029899</v>
+        <v>-0.354740669742105</v>
       </c>
       <c r="K47" s="1">
-        <v>0.81544510259793201</v>
+        <v>0.54452336624020103</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>8.0319397609623095</v>
+        <v>0.44250993177190501</v>
       </c>
       <c r="C48" s="1">
-        <v>0.22315992606039101</v>
+        <v>0.96830134401253798</v>
       </c>
       <c r="D48" s="1">
-        <v>0.13863083502581899</v>
+        <v>-0.60797554342798499</v>
       </c>
       <c r="E48" s="1">
-        <v>0.87215609009801098</v>
+        <v>0.66501323107038102</v>
       </c>
       <c r="F48" s="1">
-        <v>2.1579838802375799</v>
+        <v>1.5741809984138999</v>
       </c>
       <c r="G48" s="1">
-        <v>0.38483307344789502</v>
+        <v>0.751666727856244</v>
       </c>
       <c r="H48" s="1">
-        <v>7.4406461814890801E-2</v>
+        <v>-1.5580819327030501E-2</v>
       </c>
       <c r="I48" s="1">
-        <v>0.90771889127615601</v>
+        <v>0.98689983999047604</v>
       </c>
       <c r="J48" s="1">
-        <v>-0.15502711496147201</v>
+        <v>-0.20048986186029899</v>
       </c>
       <c r="K48" s="1">
-        <v>0.79304091773212504</v>
+        <v>0.81544510259793201</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>1.49259085634765</v>
+        <v>8.0319397609623095</v>
       </c>
       <c r="C49" s="1">
-        <v>0.75830678548189001</v>
+        <v>0.22315992606039101</v>
       </c>
       <c r="D49" s="1">
-        <v>0.106601708445696</v>
+        <v>0.13863083502581899</v>
       </c>
       <c r="E49" s="1">
-        <v>0.91968635715507696</v>
+        <v>0.87215609009801098</v>
       </c>
       <c r="F49" s="1">
-        <v>-0.83105223150468399</v>
+        <v>2.1579838802375799</v>
       </c>
       <c r="G49" s="1">
-        <v>0.71490229640333003</v>
+        <v>0.38483307344789502</v>
       </c>
       <c r="H49" s="1">
-        <v>0.284715021800653</v>
+        <v>7.4406461814890801E-2</v>
       </c>
       <c r="I49" s="1">
-        <v>0.657108904343077</v>
+        <v>0.90771889127615601</v>
       </c>
       <c r="J49" s="1">
-        <v>-1.98535553297104E-2</v>
+        <v>-0.15502711496147201</v>
       </c>
       <c r="K49" s="1">
-        <v>0.97012144201098605</v>
+        <v>0.79304091773212504</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
-        <v>11.045789450893899</v>
+        <v>1.49259085634765</v>
       </c>
       <c r="C50" s="1">
-        <v>2.0606920313757701E-2</v>
+        <v>0.75830678548189001</v>
       </c>
       <c r="D50" s="1">
-        <v>-0.60466666974193095</v>
+        <v>0.106601708445696</v>
       </c>
       <c r="E50" s="1">
-        <v>0.352318387553826</v>
+        <v>0.91968635715507696</v>
       </c>
       <c r="F50" s="1">
-        <v>4.0009317381015803</v>
+        <v>-0.83105223150468399</v>
       </c>
       <c r="G50" s="1">
-        <v>4.7458198570211801E-2</v>
+        <v>0.71490229640333003</v>
       </c>
       <c r="H50" s="1">
-        <v>0.29502511654647801</v>
+        <v>0.284715021800653</v>
       </c>
       <c r="I50" s="1">
-        <v>0.549673685391041</v>
+        <v>0.657108904343077</v>
       </c>
       <c r="J50" s="1">
-        <v>0.77576004969813395</v>
+        <v>-1.98535553297104E-2</v>
       </c>
       <c r="K50" s="1">
-        <v>0.304864442736062</v>
+        <v>0.97012144201098605</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>0.54400233020789301</v>
+        <v>11.045789450893899</v>
       </c>
       <c r="C51" s="1">
-        <v>0.94914651695195695</v>
+        <v>2.0606920313757701E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>4.3292840864387401</v>
+        <v>-0.60466666974193095</v>
       </c>
       <c r="E51" s="1">
-        <v>0.13780904070456201</v>
+        <v>0.352318387553826</v>
       </c>
       <c r="F51" s="1">
-        <v>-10.4905737578306</v>
+        <v>4.0009317381015803</v>
       </c>
       <c r="G51" s="1">
-        <v>5.4103010310065897E-2</v>
+        <v>4.7458198570211801E-2</v>
       </c>
       <c r="H51" s="1">
-        <v>1.01153785093963</v>
+        <v>0.29502511654647801</v>
       </c>
       <c r="I51" s="1">
-        <v>0.47793559617028603</v>
+        <v>0.549673685391041</v>
       </c>
       <c r="J51" s="1">
-        <v>4.1873804145380999E-2</v>
+        <v>0.77576004969813395</v>
       </c>
       <c r="K51" s="1">
-        <v>0.96766885398256797</v>
+        <v>0.304864442736062</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
-        <v>-1.61683768744378</v>
+        <v>0.54400233020789301</v>
       </c>
       <c r="C52" s="1">
-        <v>0.891594898340485</v>
+        <v>0.94914651695195695</v>
       </c>
       <c r="D52" s="1">
-        <v>-1.26341372686342</v>
+        <v>4.3292840864387401</v>
       </c>
       <c r="E52" s="1">
-        <v>0.35279120447485901</v>
+        <v>0.13780904070456201</v>
       </c>
       <c r="F52" s="1">
-        <v>-3.054086138667</v>
+        <v>-10.4905737578306</v>
       </c>
       <c r="G52" s="1">
-        <v>0.26513488900874699</v>
+        <v>5.4103010310065897E-2</v>
       </c>
       <c r="H52" s="1">
-        <v>-0.800477319575434</v>
+        <v>1.01153785093963</v>
       </c>
       <c r="I52" s="1">
-        <v>0.38253533269829199</v>
+        <v>0.47793559617028603</v>
       </c>
       <c r="J52" s="1">
-        <v>2.3832366095497801</v>
+        <v>4.1873804145380999E-2</v>
       </c>
       <c r="K52" s="1">
-        <v>3.96709362350256E-2</v>
+        <v>0.96766885398256797</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
-        <v>6.9244583708701199</v>
+        <v>-1.61683768744378</v>
       </c>
       <c r="C53" s="1">
-        <v>0.113487476194971</v>
+        <v>0.891594898340485</v>
       </c>
       <c r="D53" s="1">
-        <v>0.90750541796014905</v>
+        <v>-1.26341372686342</v>
       </c>
       <c r="E53" s="1">
-        <v>0.23856309480614299</v>
+        <v>0.35279120447485901</v>
       </c>
       <c r="F53" s="1">
-        <v>3.9358478383422799</v>
+        <v>-3.054086138667</v>
       </c>
       <c r="G53" s="1">
-        <v>1.91651433507939E-2</v>
+        <v>0.26513488900874699</v>
       </c>
       <c r="H53" s="1">
-        <v>0.262205537410443</v>
+        <v>-0.800477319575434</v>
       </c>
       <c r="I53" s="1">
-        <v>0.58709260176802203</v>
+        <v>0.38253533269829199</v>
       </c>
       <c r="J53" s="1">
-        <v>0.35148676621497099</v>
+        <v>2.3832366095497801</v>
       </c>
       <c r="K53" s="1">
-        <v>0.47983556495084401</v>
+        <v>3.96709362350256E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>4.0165158105709304</v>
+        <v>6.9244583708701199</v>
       </c>
       <c r="C54" s="1">
-        <v>0.30327458090973902</v>
+        <v>0.113487476194971</v>
       </c>
       <c r="D54" s="1">
-        <v>1.6378226216270999</v>
+        <v>0.90750541796014905</v>
       </c>
       <c r="E54" s="1">
-        <v>5.2735274162760198E-3</v>
+        <v>0.23856309480614299</v>
       </c>
       <c r="F54" s="1">
-        <v>1.6882680168135</v>
+        <v>3.9358478383422799</v>
       </c>
       <c r="G54" s="1">
-        <v>0.46037813352641399</v>
+        <v>1.91651433507939E-2</v>
       </c>
       <c r="H54" s="1">
-        <v>0.223972456058629</v>
+        <v>0.262205537410443</v>
       </c>
       <c r="I54" s="1">
-        <v>0.65016544655801201</v>
+        <v>0.58709260176802203</v>
       </c>
       <c r="J54" s="1">
-        <v>0.67911741322734798</v>
+        <v>0.35148676621497099</v>
       </c>
       <c r="K54" s="1">
-        <v>0.10818440318898701</v>
+        <v>0.47983556495084401</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1">
-        <v>8.9734263908899194</v>
+        <v>4.0165158105709304</v>
       </c>
       <c r="C55" s="1">
-        <v>5.9643864200793602E-2</v>
+        <v>0.30327458090973902</v>
       </c>
       <c r="D55" s="1">
-        <v>2.2162149344233302</v>
+        <v>1.6378226216270999</v>
       </c>
       <c r="E55" s="1">
-        <v>4.63148485566438E-4</v>
+        <v>5.2735274162760198E-3</v>
       </c>
       <c r="F55" s="1">
-        <v>3.2531021947246201</v>
+        <v>1.6882680168135</v>
       </c>
       <c r="G55" s="1">
-        <v>0.11528606279729101</v>
+        <v>0.46037813352641399</v>
       </c>
       <c r="H55" s="1">
-        <v>-0.29179895818533502</v>
+        <v>0.223972456058629</v>
       </c>
       <c r="I55" s="1">
-        <v>0.507281749037514</v>
+        <v>0.65016544655801201</v>
       </c>
       <c r="J55" s="1">
-        <v>0.86675515968046801</v>
+        <v>0.67911741322734798</v>
       </c>
       <c r="K55" s="1">
-        <v>4.5214304884282699E-2</v>
+        <v>0.10818440318898701</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>19.527101636294798</v>
+        <v>8.9734263908899194</v>
       </c>
       <c r="C56" s="1">
-        <v>3.0858107251204702E-3</v>
+        <v>5.9643864200793602E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>5.2465631661976104</v>
+        <v>2.2162149344233302</v>
       </c>
       <c r="E56" s="1">
-        <v>4.9594355391643502E-8</v>
+        <v>4.63148485566438E-4</v>
       </c>
       <c r="F56" s="1">
-        <v>5.1789269789141397</v>
+        <v>3.2531021947246201</v>
       </c>
       <c r="G56" s="1">
-        <v>3.9677114173901601E-2</v>
+        <v>0.11528606279729101</v>
       </c>
       <c r="H56" s="1">
-        <v>0.80114593114625599</v>
+        <v>-0.29179895818533502</v>
       </c>
       <c r="I56" s="1">
-        <v>0.12629244968877901</v>
+        <v>0.507281749037514</v>
       </c>
       <c r="J56" s="1">
-        <v>1.59778679725662</v>
+        <v>0.86675515968046801</v>
       </c>
       <c r="K56" s="1">
-        <v>8.3544580508672604E-3</v>
+        <v>4.5214304884282699E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
-        <v>25.1348261734327</v>
+        <v>19.527101636294798</v>
       </c>
       <c r="C57" s="1">
-        <v>1.0599397377188201E-2</v>
+        <v>3.0858107251204702E-3</v>
       </c>
       <c r="D57" s="1">
-        <v>9.5941154228829006</v>
+        <v>5.2465631661976104</v>
       </c>
       <c r="E57" s="1">
-        <v>3.2976274617804702E-4</v>
+        <v>4.9594355391643502E-8</v>
       </c>
       <c r="F57" s="1">
-        <v>7.3453193661660396</v>
+        <v>5.1789269789141397</v>
       </c>
       <c r="G57" s="1">
-        <v>0.214792137657729</v>
+        <v>3.9677114173901601E-2</v>
       </c>
       <c r="H57" s="1">
-        <v>0.33806424743086799</v>
+        <v>0.80114593114625599</v>
       </c>
       <c r="I57" s="1">
-        <v>0.72709244686855501</v>
+        <v>0.12629244968877901</v>
       </c>
       <c r="J57" s="1">
-        <v>3.0399041103675102</v>
+        <v>1.59778679725662</v>
       </c>
       <c r="K57" s="1">
-        <v>0.127710731546372</v>
+        <v>8.3544580508672604E-3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>-20.201998804500899</v>
+        <v>25.1348261734327</v>
       </c>
       <c r="C58" s="1">
-        <v>0.188608508758775</v>
+        <v>1.0599397377188201E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>8.0949208055158692</v>
+        <v>9.5941154228829006</v>
       </c>
       <c r="E58" s="1">
-        <v>6.8495440049613299E-5</v>
+        <v>3.2976274617804702E-4</v>
       </c>
       <c r="F58" s="1">
-        <v>0.39843595061444298</v>
+        <v>7.3453193661660396</v>
       </c>
       <c r="G58" s="1">
-        <v>0.95273462054693703</v>
+        <v>0.214792137657729</v>
       </c>
       <c r="H58" s="1">
-        <v>-2.0074328197487801</v>
+        <v>0.33806424743086799</v>
       </c>
       <c r="I58" s="1">
-        <v>0.145205313456132</v>
+        <v>0.72709244686855501</v>
       </c>
       <c r="J58" s="1">
-        <v>-2.9807415723220498</v>
+        <v>3.0399041103675102</v>
       </c>
       <c r="K58" s="1">
-        <v>5.2879216783882702E-2</v>
+        <v>0.127710731546372</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
-        <v>-3.7334322837784302</v>
+        <v>-20.201998804500899</v>
       </c>
       <c r="C59" s="1">
-        <v>0.416999217862558</v>
+        <v>0.188608508758775</v>
       </c>
       <c r="D59" s="1">
-        <v>0.81328968575717198</v>
+        <v>8.0949208055158692</v>
       </c>
       <c r="E59" s="1">
-        <v>0.12573161819543899</v>
+        <v>6.8495440049613299E-5</v>
       </c>
       <c r="F59" s="1">
-        <v>-5.16727769146343</v>
+        <v>0.39843595061444298</v>
       </c>
       <c r="G59" s="1">
-        <v>1.2512564513830701E-2</v>
+        <v>0.95273462054693703</v>
       </c>
       <c r="H59" s="1">
-        <v>0.87028582944272204</v>
+        <v>-2.0074328197487801</v>
       </c>
       <c r="I59" s="1">
-        <v>2.5437638994523899E-2</v>
+        <v>0.145205313456132</v>
       </c>
       <c r="J59" s="1">
-        <v>-5.8701981851048302E-2</v>
+        <v>-2.9807415723220498</v>
       </c>
       <c r="K59" s="1">
-        <v>0.88172945624296195</v>
+        <v>5.2879216783882702E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
-        <v>4.7970198751992301</v>
+        <v>-3.7334322837784302</v>
       </c>
       <c r="C60" s="1">
-        <v>0.299665217774577</v>
+        <v>0.416999217862558</v>
       </c>
       <c r="D60" s="1">
-        <v>2.5207636097321302</v>
+        <v>0.81328968575717198</v>
       </c>
       <c r="E60" s="1">
-        <v>5.7571351033346204E-3</v>
+        <v>0.12573161819543899</v>
       </c>
       <c r="F60" s="1">
-        <v>-3.2061927893825199</v>
+        <v>-5.16727769146343</v>
       </c>
       <c r="G60" s="1">
-        <v>9.5394546036553493E-2</v>
+        <v>1.2512564513830701E-2</v>
       </c>
       <c r="H60" s="1">
-        <v>1.1674916942605</v>
+        <v>0.87028582944272204</v>
       </c>
       <c r="I60" s="1">
-        <v>2.0693348821171002E-3</v>
+        <v>2.5437638994523899E-2</v>
       </c>
       <c r="J60" s="1">
-        <v>1.15879486523829</v>
+        <v>-5.8701981851048302E-2</v>
       </c>
       <c r="K60" s="1">
-        <v>9.6297675519963405E-2</v>
+        <v>0.88172945624296195</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>-11.796150466593801</v>
+        <v>4.7970198751992301</v>
       </c>
       <c r="C61" s="1">
-        <v>6.6468887065141993E-2</v>
+        <v>0.299665217774577</v>
       </c>
       <c r="D61" s="1">
-        <v>-0.89874757844324704</v>
+        <v>2.5207636097321302</v>
       </c>
       <c r="E61" s="1">
-        <v>0.34793575260307702</v>
+        <v>5.7571351033346204E-3</v>
       </c>
       <c r="F61" s="1">
-        <v>-13.3203077293925</v>
+        <v>-3.2061927893825199</v>
       </c>
       <c r="G61" s="1">
-        <v>1.1618923362631301E-4</v>
+        <v>9.5394546036553493E-2</v>
       </c>
       <c r="H61" s="1">
-        <v>-0.13509735971175099</v>
+        <v>1.1674916942605</v>
       </c>
       <c r="I61" s="1">
-        <v>0.78954678199685802</v>
+        <v>2.0693348821171002E-3</v>
       </c>
       <c r="J61" s="1">
-        <v>1.36440244766207</v>
+        <v>1.15879486523829</v>
       </c>
       <c r="K61" s="1">
-        <v>0.483564928927538</v>
+        <v>9.6297675519963405E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1">
-        <v>5.0493030948002096</v>
+        <v>-11.796150466593801</v>
       </c>
       <c r="C62" s="1">
-        <v>0.28336037287375798</v>
+        <v>6.6468887065141993E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>1.5973950296574</v>
+        <v>-0.89874757844324704</v>
       </c>
       <c r="E62" s="1">
-        <v>1.93435443595333E-2</v>
+        <v>0.34793575260307702</v>
       </c>
       <c r="F62" s="1">
-        <v>3.8536111811979201</v>
+        <v>-13.3203077293925</v>
       </c>
       <c r="G62" s="1">
-        <v>1.29074798114264E-2</v>
+        <v>1.1618923362631301E-4</v>
       </c>
       <c r="H62" s="1">
-        <v>0.36831146988423902</v>
+        <v>-0.13509735971175099</v>
       </c>
       <c r="I62" s="1">
-        <v>0.50502716305427497</v>
+        <v>0.78954678199685802</v>
       </c>
       <c r="J62" s="1">
-        <v>0.56593441585097204</v>
+        <v>1.36440244766207</v>
       </c>
       <c r="K62" s="1">
-        <v>0.336552810927229</v>
+        <v>0.483564928927538</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1">
-        <v>-3.5497554700751901</v>
+        <v>5.0493030948002096</v>
       </c>
       <c r="C63" s="1">
-        <v>0.383457938280374</v>
+        <v>0.28336037287375798</v>
       </c>
       <c r="D63" s="1">
-        <v>0.24321321489445599</v>
+        <v>1.5973950296574</v>
       </c>
       <c r="E63" s="1">
-        <v>0.639141341877563</v>
+        <v>1.93435443595333E-2</v>
       </c>
       <c r="F63" s="1">
-        <v>-0.83688258602440502</v>
+        <v>3.8536111811979201</v>
       </c>
       <c r="G63" s="1">
-        <v>0.52130498043820295</v>
+        <v>1.29074798114264E-2</v>
       </c>
       <c r="H63" s="1">
-        <v>5.48482233588845E-2</v>
+        <v>0.36831146988423902</v>
       </c>
       <c r="I63" s="1">
-        <v>0.87318235984871395</v>
+        <v>0.50502716305427497</v>
       </c>
       <c r="J63" s="1">
-        <v>0.33669963926038898</v>
+        <v>0.56593441585097204</v>
       </c>
       <c r="K63" s="1">
-        <v>0.29905343252011701</v>
+        <v>0.336552810927229</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1">
-        <v>-0.47634852100880598</v>
+        <v>-3.5497554700751901</v>
       </c>
       <c r="C64" s="1">
-        <v>0.90370916772616094</v>
+        <v>0.383457938280374</v>
       </c>
       <c r="D64" s="1">
-        <v>-0.69807718961602305</v>
+        <v>0.24321321489445599</v>
       </c>
       <c r="E64" s="1">
-        <v>0.21886720292554401</v>
+        <v>0.639141341877563</v>
       </c>
       <c r="F64" s="1">
-        <v>-1.52769211768692</v>
+        <v>-0.83688258602440502</v>
       </c>
       <c r="G64" s="1">
-        <v>0.353472997448256</v>
+        <v>0.52130498043820295</v>
       </c>
       <c r="H64" s="1">
-        <v>-3.1122797186367301E-2</v>
+        <v>5.48482233588845E-2</v>
       </c>
       <c r="I64" s="1">
-        <v>0.93277844348948302</v>
+        <v>0.87318235984871395</v>
       </c>
       <c r="J64" s="1">
-        <v>1.1682487123646801</v>
+        <v>0.33669963926038898</v>
       </c>
       <c r="K64" s="1">
-        <v>0.15594340640044799</v>
+        <v>0.29905343252011701</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1">
-        <v>8.47206702285402</v>
+        <v>-0.47634852100880598</v>
       </c>
       <c r="C65" s="1">
-        <v>0.351606848473694</v>
+        <v>0.90370916772616094</v>
       </c>
       <c r="D65" s="1">
-        <v>4.2949550196794704</v>
+        <v>-0.69807718961602305</v>
       </c>
       <c r="E65" s="1">
-        <v>3.3401222416366297E-2</v>
+        <v>0.21886720292554401</v>
       </c>
       <c r="F65" s="1">
-        <v>3.7310191923576399</v>
+        <v>-1.52769211768692</v>
       </c>
       <c r="G65" s="1">
-        <v>0.438822423643562</v>
+        <v>0.353472997448256</v>
       </c>
       <c r="H65" s="1">
-        <v>1.5124336407374499</v>
+        <v>-3.1122797186367301E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>3.8498271242772601E-2</v>
+        <v>0.93277844348948302</v>
       </c>
       <c r="J65" s="1">
-        <v>-2.39669632137341</v>
+        <v>1.1682487123646801</v>
       </c>
       <c r="K65" s="1">
-        <v>0.363841601663834</v>
+        <v>0.15594340640044799</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1">
-        <v>7.31667105526176</v>
+        <v>8.47206702285402</v>
       </c>
       <c r="C66" s="1">
-        <v>0.20542989909450199</v>
+        <v>0.351606848473694</v>
       </c>
       <c r="D66" s="1">
-        <v>0.90427444024616299</v>
+        <v>4.2949550196794704</v>
       </c>
       <c r="E66" s="1">
-        <v>0.121224814182101</v>
+        <v>3.3401222416366297E-2</v>
       </c>
       <c r="F66" s="1">
-        <v>0.81186652216325395</v>
+        <v>3.7310191923576399</v>
       </c>
       <c r="G66" s="1">
-        <v>0.74501749213576995</v>
+        <v>0.438822423643562</v>
       </c>
       <c r="H66" s="1">
-        <v>0.15843720749509199</v>
+        <v>1.5124336407374499</v>
       </c>
       <c r="I66" s="1">
-        <v>0.77506199844271595</v>
+        <v>3.8498271242772601E-2</v>
       </c>
       <c r="J66" s="1">
-        <v>0.45988996107185498</v>
+        <v>-2.39669632137341</v>
       </c>
       <c r="K66" s="1">
-        <v>0.605844545753224</v>
+        <v>0.363841601663834</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="1">
-        <v>0.51615820520803102</v>
+        <v>7.31667105526176</v>
       </c>
       <c r="C67" s="1">
-        <v>8.3444995133965998E-10</v>
+        <v>0.20542989909450199</v>
       </c>
       <c r="D67" s="1">
-        <v>3.2842502947766798E-2</v>
+        <v>0.90427444024616299</v>
       </c>
       <c r="E67" s="1">
-        <v>9.8880221316658605E-5</v>
+        <v>0.121224814182101</v>
       </c>
       <c r="F67" s="1">
-        <v>8.9466349317432997E-2</v>
+        <v>0.81186652216325395</v>
       </c>
       <c r="G67" s="1">
-        <v>7.7739897677468498E-3</v>
+        <v>0.74501749213576995</v>
       </c>
       <c r="H67" s="1">
-        <v>8.5872881183807995E-2</v>
+        <v>0.15843720749509199</v>
       </c>
       <c r="I67" s="1">
-        <v>3.2790650558508003E-23</v>
+        <v>0.77506199844271595</v>
       </c>
       <c r="J67" s="1">
-        <v>5.5172331169862102E-2</v>
+        <v>0.45988996107185498</v>
       </c>
       <c r="K67" s="1">
-        <v>1.58906236322853E-15</v>
+        <v>0.605844545753224</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1">
-        <v>4.9875317116544401E-2</v>
+        <v>0.51615820520803102</v>
       </c>
       <c r="C68" s="1">
-        <v>5.2528435027852103E-5</v>
+        <v>8.3444995133965998E-10</v>
       </c>
       <c r="D68" s="1">
-        <v>1.11091587970419E-3</v>
+        <v>3.2842502947766798E-2</v>
       </c>
       <c r="E68" s="1">
-        <v>0.42170653680892001</v>
+        <v>9.8880221316658605E-5</v>
       </c>
       <c r="F68" s="1">
-        <v>2.9744122865933802E-3</v>
+        <v>8.9466349317432997E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>0.47542289598366799</v>
+        <v>7.7739897677468498E-3</v>
       </c>
       <c r="H68" s="1">
-        <v>6.5332248015006001E-3</v>
+        <v>8.5872881183807995E-2</v>
       </c>
       <c r="I68" s="1">
-        <v>1.4306806196364E-6</v>
+        <v>3.2790650558508003E-23</v>
       </c>
       <c r="J68" s="1">
-        <v>3.3825006037270901E-3</v>
+        <v>5.5172331169862102E-2</v>
       </c>
       <c r="K68" s="1">
-        <v>2.2760677640005201E-3</v>
+        <v>1.58906236322853E-15</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>8.2469366172512704</v>
+        <v>4.9875317116544401E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>0.150229090744425</v>
+        <v>5.2528435027852103E-5</v>
       </c>
       <c r="D69" s="1">
-        <v>0.55810537530573401</v>
+        <v>1.11091587970419E-3</v>
       </c>
       <c r="E69" s="1">
-        <v>0.24261403548469801</v>
+        <v>0.42170653680892001</v>
       </c>
       <c r="F69" s="1">
-        <v>2.6818028885145</v>
+        <v>2.9744122865933802E-3</v>
       </c>
       <c r="G69" s="1">
-        <v>0.54919607707252205</v>
+        <v>0.47542289598366799</v>
       </c>
       <c r="H69" s="1">
-        <v>0.46774356379447002</v>
+        <v>6.5332248015006001E-3</v>
       </c>
       <c r="I69" s="1">
-        <v>0.38049885522395099</v>
+        <v>1.4306806196364E-6</v>
       </c>
       <c r="J69" s="1">
-        <v>1.4693744583689701</v>
+        <v>3.3825006037270901E-3</v>
       </c>
       <c r="K69" s="1">
-        <v>0.117806905033172</v>
+        <v>2.2760677640005201E-3</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1">
-        <v>12.4024003636823</v>
+        <v>8.2469366172512704</v>
       </c>
       <c r="C70" s="1">
-        <v>9.30632259840979E-2</v>
+        <v>0.150229090744425</v>
       </c>
       <c r="D70" s="1">
-        <v>2.37703867306044</v>
+        <v>0.55810537530573401</v>
       </c>
       <c r="E70" s="1">
-        <v>3.9842471744737503E-3</v>
+        <v>0.24261403548469801</v>
       </c>
       <c r="F70" s="1">
-        <v>4.5720964970857203</v>
+        <v>2.6818028885145</v>
       </c>
       <c r="G70" s="1">
-        <v>0.36322713340858498</v>
+        <v>0.54919607707252205</v>
       </c>
       <c r="H70" s="1">
-        <v>0.46148998210248299</v>
+        <v>0.46774356379447002</v>
       </c>
       <c r="I70" s="1">
-        <v>0.47843919537264901</v>
+        <v>0.38049885522395099</v>
       </c>
       <c r="J70" s="1">
-        <v>1.7480673743227599</v>
+        <v>1.4693744583689701</v>
       </c>
       <c r="K70" s="1">
-        <v>5.07129553233613E-2</v>
+        <v>0.117806905033172</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1">
-        <v>8.0701518833119295</v>
+        <v>12.4024003636823</v>
       </c>
       <c r="C71" s="1">
-        <v>0.45601913969561397</v>
+        <v>9.30632259840979E-2</v>
       </c>
       <c r="D71" s="1">
-        <v>4.2996980705453396</v>
+        <v>2.37703867306044</v>
       </c>
       <c r="E71" s="1">
-        <v>3.4970526408346198E-4</v>
+        <v>3.9842471744737503E-3</v>
       </c>
       <c r="F71" s="1">
-        <v>-0.99402433334896001</v>
+        <v>4.5720964970857203</v>
       </c>
       <c r="G71" s="1">
-        <v>0.87638665636692004</v>
+        <v>0.36322713340858498</v>
       </c>
       <c r="H71" s="1">
-        <v>0.517080310737979</v>
+        <v>0.46148998210248299</v>
       </c>
       <c r="I71" s="1">
-        <v>0.56426282724135302</v>
+        <v>0.47843919537264901</v>
       </c>
       <c r="J71" s="1">
-        <v>2.0726480528518798</v>
+        <v>1.7480673743227599</v>
       </c>
       <c r="K71" s="1">
-        <v>9.8789635214758004E-2</v>
+        <v>5.07129553233613E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1">
-        <v>-9.1500489578022304</v>
+        <v>8.0701518833119295</v>
       </c>
       <c r="C72" s="1">
-        <v>0.49710738190776199</v>
+        <v>0.45601913969561397</v>
       </c>
       <c r="D72" s="1">
-        <v>6.8586956884545698</v>
+        <v>4.2996980705453396</v>
       </c>
       <c r="E72" s="1">
-        <v>9.07570766764061E-4</v>
+        <v>3.4970526408346198E-4</v>
       </c>
       <c r="F72" s="1">
-        <v>-11.389472516399399</v>
+        <v>-0.99402433334896001</v>
       </c>
       <c r="G72" s="1">
-        <v>0.121215962418131</v>
+        <v>0.87638665636692004</v>
       </c>
       <c r="H72" s="1">
-        <v>-0.85311691253736199</v>
+        <v>0.517080310737979</v>
       </c>
       <c r="I72" s="1">
-        <v>0.47659327070569002</v>
+        <v>0.56426282724135302</v>
       </c>
       <c r="J72" s="1">
-        <v>2.2936891865976698</v>
+        <v>2.0726480528518798</v>
       </c>
       <c r="K72" s="1">
-        <v>0.122422209620578</v>
+        <v>9.8789635214758004E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1">
-        <v>2.94470707489547</v>
+        <v>-9.1500489578022304</v>
       </c>
       <c r="C73" s="1">
-        <v>0.77356061764851403</v>
+        <v>0.49710738190776199</v>
       </c>
       <c r="D73" s="1">
-        <v>0.961466277005254</v>
+        <v>6.8586956884545698</v>
       </c>
       <c r="E73" s="1">
-        <v>0.36620816858534999</v>
+        <v>9.07570766764061E-4</v>
       </c>
       <c r="F73" s="1">
-        <v>-3.03354391457012</v>
+        <v>-11.389472516399399</v>
       </c>
       <c r="G73" s="1">
-        <v>0.642541306095884</v>
+        <v>0.121215962418131</v>
       </c>
       <c r="H73" s="1">
-        <v>4.24163601270117E-2</v>
+        <v>-0.85311691253736199</v>
       </c>
       <c r="I73" s="1">
-        <v>0.97109927384853301</v>
+        <v>0.47659327070569002</v>
       </c>
       <c r="J73" s="1">
-        <v>2.6879064424140799</v>
+        <v>2.2936891865976698</v>
       </c>
       <c r="K73" s="1">
-        <v>7.1891565535980195E-2</v>
+        <v>0.122422209620578</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="1">
-        <v>4.26361634010918E-3</v>
+        <v>2.94470707489547</v>
       </c>
       <c r="C74" s="1">
-        <v>4.2246627772790403E-2</v>
+        <v>0.77356061764851403</v>
       </c>
       <c r="D74" s="1">
-        <v>1.9787580450655499E-4</v>
+        <v>0.961466277005254</v>
       </c>
       <c r="E74" s="1">
-        <v>0.32499929396963201</v>
+        <v>0.36620816858534999</v>
       </c>
       <c r="F74" s="1">
-        <v>3.4053468141582101E-3</v>
+        <v>-3.03354391457012</v>
       </c>
       <c r="G74" s="1">
-        <v>7.84193531142839E-4</v>
+        <v>0.642541306095884</v>
       </c>
       <c r="H74" s="1">
-        <v>3.9578663302706299E-5</v>
+        <v>4.24163601270117E-2</v>
       </c>
       <c r="I74" s="1">
-        <v>0.81683887305671199</v>
+        <v>0.97109927384853301</v>
       </c>
       <c r="J74" s="1">
-        <v>2.4988799915309399E-4</v>
+        <v>2.6879064424140799</v>
       </c>
       <c r="K74" s="1">
-        <v>0.27694665764672499</v>
+        <v>7.1891565535980195E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="1">
-        <v>7.5747955557538497E-3</v>
+        <v>4.26361634010918E-3</v>
       </c>
       <c r="C75" s="1">
-        <v>9.9184301081422094E-3</v>
+        <v>4.2246627772790403E-2</v>
       </c>
       <c r="D75" s="1">
-        <v>3.5897971136985298E-3</v>
+        <v>1.9787580450655499E-4</v>
       </c>
       <c r="E75" s="1">
-        <v>2.0591542891946101E-10</v>
+        <v>0.32499929396963201</v>
       </c>
       <c r="F75" s="1">
-        <v>6.4225284167454305E-4</v>
+        <v>3.4053468141582101E-3</v>
       </c>
       <c r="G75" s="1">
-        <v>0.51792545197392803</v>
+        <v>7.84193531142839E-4</v>
       </c>
       <c r="H75" s="1">
-        <v>5.0585313563715798E-4</v>
+        <v>3.9578663302706299E-5</v>
       </c>
       <c r="I75" s="1">
-        <v>5.6627943811094102E-2</v>
+        <v>0.81683887305671199</v>
       </c>
       <c r="J75" s="1">
-        <v>3.5190651274538898E-4</v>
+        <v>2.4988799915309399E-4</v>
       </c>
       <c r="K75" s="1">
-        <v>0.19844974022936299</v>
+        <v>0.27694665764672499</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="1">
-        <v>5.7028641422843496</v>
+        <v>7.5747955557538497E-3</v>
       </c>
       <c r="C76" s="1">
-        <v>0.148227247607673</v>
+        <v>9.9184301081422094E-3</v>
       </c>
       <c r="D76" s="1">
-        <v>0.97159724524112401</v>
+        <v>3.5897971136985298E-3</v>
       </c>
       <c r="E76" s="1">
-        <v>8.5460538136969397E-2</v>
+        <v>2.0591542891946101E-10</v>
       </c>
       <c r="F76" s="1">
-        <v>0.71359661598023605</v>
+        <v>6.4225284167454305E-4</v>
       </c>
       <c r="G76" s="1">
-        <v>0.69123084807482804</v>
+        <v>0.51792545197392803</v>
       </c>
       <c r="H76" s="1">
-        <v>0.562976244828022</v>
+        <v>5.0585313563715798E-4</v>
       </c>
       <c r="I76" s="1">
-        <v>0.123862916041959</v>
+        <v>5.6627943811094102E-2</v>
       </c>
       <c r="J76" s="1">
-        <v>1.6508212935975</v>
+        <v>3.5190651274538898E-4</v>
       </c>
       <c r="K76" s="1">
-        <v>4.79595820928247E-2</v>
+        <v>0.19844974022936299</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1">
-        <v>-2.8822801391341</v>
+        <v>5.7028641422843496</v>
       </c>
       <c r="C77" s="1">
-        <v>0.63899634126545801</v>
+        <v>0.148227247607673</v>
       </c>
       <c r="D77" s="1">
-        <v>-6.6042263896372702E-2</v>
+        <v>0.97159724524112401</v>
       </c>
       <c r="E77" s="1">
-        <v>0.93170385256034205</v>
+        <v>8.5460538136969397E-2</v>
       </c>
       <c r="F77" s="1">
-        <v>3.3574789336455599</v>
+        <v>0.71359661598023605</v>
       </c>
       <c r="G77" s="1">
-        <v>0.33996200343543598</v>
+        <v>0.69123084807482804</v>
       </c>
       <c r="H77" s="1">
-        <v>-0.328857804321464</v>
+        <v>0.562976244828022</v>
       </c>
       <c r="I77" s="1">
-        <v>0.49869933089199497</v>
+        <v>0.123862916041959</v>
       </c>
       <c r="J77" s="1">
-        <v>0.77309984112977903</v>
+        <v>1.6508212935975</v>
       </c>
       <c r="K77" s="1">
-        <v>0.123663798543813</v>
+        <v>4.79595820928247E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="1">
-        <v>1.7664245743214499</v>
+        <v>-2.8822801391341</v>
       </c>
       <c r="C78" s="1">
-        <v>0.79462565946808805</v>
+        <v>0.63899634126545801</v>
       </c>
       <c r="D78" s="1">
-        <v>0.63875919087861499</v>
+        <v>-6.6042263896372702E-2</v>
       </c>
       <c r="E78" s="1">
-        <v>0.34074468054851698</v>
+        <v>0.93170385256034205</v>
       </c>
       <c r="F78" s="1">
-        <v>-3.2810669626443101</v>
+        <v>3.3574789336455599</v>
       </c>
       <c r="G78" s="1">
-        <v>0.150173341043323</v>
+        <v>0.33996200343543598</v>
       </c>
       <c r="H78" s="1">
-        <v>0.44731496599143</v>
+        <v>-0.328857804321464</v>
       </c>
       <c r="I78" s="1">
-        <v>0.45494194364853502</v>
+        <v>0.49869933089199497</v>
       </c>
       <c r="J78" s="1">
-        <v>-2.30303708152375E-2</v>
+        <v>0.77309984112977903</v>
       </c>
       <c r="K78" s="1">
-        <v>0.96399626528542703</v>
+        <v>0.123663798543813</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1">
-        <v>2.9176396539521798</v>
+        <v>1.7664245743214499</v>
       </c>
       <c r="C79" s="1">
-        <v>0.50488005121643997</v>
+        <v>0.79462565946808805</v>
       </c>
       <c r="D79" s="1">
-        <v>-0.56633091547709102</v>
+        <v>0.63875919087861499</v>
       </c>
       <c r="E79" s="1">
-        <v>0.31645304817039499</v>
+        <v>0.34074468054851698</v>
       </c>
       <c r="F79" s="1">
-        <v>3.5972102688109899</v>
+        <v>-3.2810669626443101</v>
       </c>
       <c r="G79" s="1">
-        <v>8.6683882359925704E-2</v>
+        <v>0.150173341043323</v>
       </c>
       <c r="H79" s="1">
-        <v>-0.51216159764386404</v>
+        <v>0.44731496599143</v>
       </c>
       <c r="I79" s="1">
-        <v>0.29832009900826501</v>
+        <v>0.45494194364853502</v>
       </c>
       <c r="J79" s="1">
-        <v>-0.81811232551136404</v>
+        <v>-2.30303708152375E-2</v>
       </c>
       <c r="K79" s="1">
-        <v>8.8535669496804997E-2</v>
+        <v>0.96399626528542703</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1">
-        <v>0.85443508711407001</v>
+        <v>2.9176396539521798</v>
       </c>
       <c r="C80" s="1">
-        <v>0.89551606802256301</v>
+        <v>0.50488005121643997</v>
       </c>
       <c r="D80" s="1">
-        <v>-0.59272905325088299</v>
+        <v>-0.56633091547709102</v>
       </c>
       <c r="E80" s="1">
-        <v>0.35472666121479302</v>
+        <v>0.31645304817039499</v>
       </c>
       <c r="F80" s="1">
-        <v>1.6313351718336</v>
+        <v>3.5972102688109899</v>
       </c>
       <c r="G80" s="1">
-        <v>0.63509840368176995</v>
+        <v>8.6683882359925704E-2</v>
       </c>
       <c r="H80" s="1">
-        <v>0.72890314092157105</v>
+        <v>-0.51216159764386404</v>
       </c>
       <c r="I80" s="1">
-        <v>0.147553003935701</v>
+        <v>0.29832009900826501</v>
       </c>
       <c r="J80" s="1">
-        <v>0.95487771220037998</v>
+        <v>-0.81811232551136404</v>
       </c>
       <c r="K80" s="1">
-        <v>6.4849788074869602E-2</v>
+        <v>8.8535669496804997E-2</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.85443508711407001</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.89551606802256301</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-0.59272905325088299</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.35472666121479302</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.6313351718336</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.63509840368176995</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.72890314092157105</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.147553003935701</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0.95487771220037998</v>
+      </c>
+      <c r="K81" s="1">
+        <v>6.4849788074869602E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="1">
         <v>-13.723876707893</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C82" s="1">
         <v>2.8568453355699401E-2</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D82" s="1">
         <v>-8.2112727974778393E-2</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E82" s="1">
         <v>0.90393748508312799</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F82" s="1">
         <v>-6.0849429281339402</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G82" s="1">
         <v>5.3328646541290402E-2</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H82" s="1">
         <v>-0.495350781967964</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I82" s="1">
         <v>0.37552964439811098</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J82" s="1">
         <v>-0.63205570603410099</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K82" s="1">
         <v>0.256063244082472</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="8" t="s">
+    <row r="83" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B83" s="5">
         <v>0.512027988769861</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C83" s="5">
         <v>0.93898212208229004</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="5">
         <v>0.27864964954059601</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="5">
         <v>0.71557993483333104</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="5">
         <v>0.11604991717936</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G83" s="5">
         <v>0.97164080391860297</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H83" s="5">
         <v>-0.26520267575048001</v>
       </c>
-      <c r="I82" s="5">
+      <c r="I83" s="5">
         <v>0.62507422539141499</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J83" s="5">
         <v>-2.7727877970123899E-2</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K83" s="5">
         <v>0.96578426821586505</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C82 E5:E82 G5:G82 I5:I82 K5:K82">
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C6:C83 E6:E83 G6:G83 I6:I83 K6:K83">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
@@ -38393,10 +38441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E9EBAE-BFD8-4177-BC61-7EE78C7B56E6}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -38405,1070 +38453,1070 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="A1" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19"/>
+    <row r="2" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B5" s="21">
         <v>0.47579149999999998</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
         <v>0.40315529999999999</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21">
         <v>0.17435239999999999</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
         <v>0.46910819999999998</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17">
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
         <v>0.23609749999999999</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K5" s="21"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>0.22042271250210799</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>0.98281260961177996</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>-10.846406408732101</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>4.2590463727681101E-7</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>-22.661030268729402</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G6" s="4">
         <v>2.7823948607513501E-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H6" s="4">
         <v>-1.1745295816744701</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I6" s="4">
         <v>9.0946391070713201E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="4">
         <v>0.86225672484196703</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K6" s="4">
         <v>0.52401184497108699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10.2949299961618</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.0311031715016898E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.4190047947258999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.7987482904741798E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9.1758572264899403</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.0442928654545899E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5.7377007870948198</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.0925249481834301E-13</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.3447398070538801</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.28668893312101001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>58.502664306834397</v>
+        <v>10.2949299961618</v>
       </c>
       <c r="C7" s="1">
-        <v>0.36649245981942702</v>
+        <v>8.0311031715016898E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>17.022656594229701</v>
+        <v>3.4190047947258999</v>
       </c>
       <c r="E7" s="1">
-        <v>1.2186156084670699E-2</v>
+        <v>3.7987482904741798E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>29.464240063116499</v>
+        <v>9.1758572264899403</v>
       </c>
       <c r="G7" s="1">
-        <v>9.6106413835159998E-2</v>
+        <v>2.0442928654545899E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>-2.1996831243505102</v>
+        <v>5.7377007870948198</v>
       </c>
       <c r="I7" s="1">
-        <v>0.54881595937509497</v>
+        <v>4.0925249481834301E-13</v>
       </c>
       <c r="J7" s="1">
-        <v>0.194673774919498</v>
+        <v>1.3447398070538801</v>
       </c>
       <c r="K7" s="1">
-        <v>0.95290347511308404</v>
+        <v>0.28668893312101001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>154.16306513147299</v>
+        <v>58.502664306834397</v>
       </c>
       <c r="C8" s="1">
-        <v>2.1448110627971E-15</v>
+        <v>0.36649245981942702</v>
       </c>
       <c r="D8" s="1">
-        <v>3.90697299777402</v>
+        <v>17.022656594229701</v>
       </c>
       <c r="E8" s="1">
-        <v>2.9650282499081901E-2</v>
+        <v>1.2186156084670699E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>19.69596100287</v>
+        <v>29.464240063116499</v>
       </c>
       <c r="G8" s="1">
-        <v>3.9691939490732403E-3</v>
+        <v>9.6106413835159998E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>5.4548132985204898</v>
+        <v>-2.1996831243505102</v>
       </c>
       <c r="I8" s="1">
-        <v>5.7165679043945099E-7</v>
+        <v>0.54881595937509497</v>
       </c>
       <c r="J8" s="1">
-        <v>5.2143027071055403</v>
+        <v>0.194673774919498</v>
       </c>
       <c r="K8" s="1">
-        <v>6.9721905437809296E-4</v>
+        <v>0.95290347511308404</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>-8.78997363461602</v>
+        <v>154.16306513147299</v>
       </c>
       <c r="C9" s="1">
-        <v>0.470700576524198</v>
+        <v>2.1448110627971E-15</v>
       </c>
       <c r="D9" s="1">
-        <v>4.42487702560648</v>
+        <v>3.90697299777402</v>
       </c>
       <c r="E9" s="1">
-        <v>1.7276795870785001E-2</v>
+        <v>2.9650282499081901E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>14.8701681562861</v>
+        <v>19.69596100287</v>
       </c>
       <c r="G9" s="1">
-        <v>5.3003163330843102E-2</v>
+        <v>3.9691939490732403E-3</v>
       </c>
       <c r="H9" s="1">
-        <v>-5.1306742351664001</v>
+        <v>5.4548132985204898</v>
       </c>
       <c r="I9" s="1">
-        <v>1.92133995481425E-5</v>
+        <v>5.7165679043945099E-7</v>
       </c>
       <c r="J9" s="1">
-        <v>-1.5687544649613201</v>
+        <v>5.2143027071055403</v>
       </c>
       <c r="K9" s="1">
-        <v>0.39303677592280201</v>
+        <v>6.9721905437809296E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>17.405055430468298</v>
+        <v>-8.78997363461602</v>
       </c>
       <c r="C10" s="1">
-        <v>1.91460308300089E-2</v>
+        <v>0.470700576524198</v>
       </c>
       <c r="D10" s="1">
-        <v>1.9720985365322801</v>
+        <v>4.42487702560648</v>
       </c>
       <c r="E10" s="1">
-        <v>0.25755745242731998</v>
+        <v>1.7276795870785001E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>9.4043806400135299</v>
+        <v>14.8701681562861</v>
       </c>
       <c r="G10" s="1">
-        <v>3.8752794342117203E-2</v>
+        <v>5.3003163330843102E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>11.247465075259001</v>
+        <v>-5.1306742351664001</v>
       </c>
       <c r="I10" s="1">
-        <v>2.6127606161461301E-20</v>
+        <v>1.92133995481425E-5</v>
       </c>
       <c r="J10" s="1">
-        <v>4.0814770540379204</v>
+        <v>-1.5687544649613201</v>
       </c>
       <c r="K10" s="1">
-        <v>2.1637442892166801E-3</v>
+        <v>0.39303677592280201</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>8.4869984377004606</v>
+        <v>17.405055430468298</v>
       </c>
       <c r="C11" s="1">
-        <v>0.11182376472515899</v>
+        <v>1.91460308300089E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>2.9806122785826901</v>
+        <v>1.9720985365322801</v>
       </c>
       <c r="E11" s="1">
-        <v>0.113115119591247</v>
+        <v>0.25755745242731998</v>
       </c>
       <c r="F11" s="1">
-        <v>9.33071486819121</v>
+        <v>9.4043806400135299</v>
       </c>
       <c r="G11" s="1">
-        <v>3.6095193882568197E-2</v>
+        <v>3.8752794342117203E-2</v>
       </c>
       <c r="H11" s="1">
-        <v>1.63527482253551</v>
+        <v>11.247465075259001</v>
       </c>
       <c r="I11" s="1">
-        <v>1.06919414209869E-2</v>
+        <v>2.6127606161461301E-20</v>
       </c>
       <c r="J11" s="1">
-        <v>-1.43647443765197</v>
+        <v>4.0814770540379204</v>
       </c>
       <c r="K11" s="1">
-        <v>0.24793725618769599</v>
+        <v>2.1637442892166801E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>20.723269323077599</v>
+        <v>8.4869984377004606</v>
       </c>
       <c r="C12" s="1">
-        <v>1.3064746487920799E-3</v>
+        <v>0.11182376472515899</v>
       </c>
       <c r="D12" s="1">
-        <v>11.345067624277201</v>
+        <v>2.9806122785826901</v>
       </c>
       <c r="E12" s="1">
-        <v>6.4053754352395796E-8</v>
+        <v>0.113115119591247</v>
       </c>
       <c r="F12" s="1">
-        <v>18.6960979642176</v>
+        <v>9.33071486819121</v>
       </c>
       <c r="G12" s="1">
-        <v>1.5096586416704901E-4</v>
+        <v>3.6095193882568197E-2</v>
       </c>
       <c r="H12" s="1">
-        <v>-0.46243428225873801</v>
+        <v>1.63527482253551</v>
       </c>
       <c r="I12" s="1">
-        <v>0.46303217317040601</v>
+        <v>1.06919414209869E-2</v>
       </c>
       <c r="J12" s="1">
-        <v>-1.8377895048453501</v>
+        <v>-1.43647443765197</v>
       </c>
       <c r="K12" s="1">
-        <v>0.11835795981555799</v>
+        <v>0.24793725618769599</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>9.6779754100489797</v>
+        <v>20.723269323077599</v>
       </c>
       <c r="C13" s="1">
-        <v>0.120961791104529</v>
+        <v>1.3064746487920799E-3</v>
       </c>
       <c r="D13" s="1">
-        <v>5.6940824788579301</v>
+        <v>11.345067624277201</v>
       </c>
       <c r="E13" s="1">
-        <v>1.4754313277661601E-3</v>
+        <v>6.4053754352395796E-8</v>
       </c>
       <c r="F13" s="1">
-        <v>11.838016415830101</v>
+        <v>18.6960979642176</v>
       </c>
       <c r="G13" s="1">
-        <v>6.4299909373868296E-3</v>
+        <v>1.5096586416704901E-4</v>
       </c>
       <c r="H13" s="1">
-        <v>0.91911647796912199</v>
+        <v>-0.46243428225873801</v>
       </c>
       <c r="I13" s="1">
-        <v>0.109921491079321</v>
+        <v>0.46303217317040601</v>
       </c>
       <c r="J13" s="1">
-        <v>-1.43143612056932</v>
+        <v>-1.8377895048453501</v>
       </c>
       <c r="K13" s="1">
-        <v>0.24107498828464299</v>
+        <v>0.11835795981555799</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>213.74235382801601</v>
+        <v>9.6779754100489797</v>
       </c>
       <c r="C14" s="1">
-        <v>1.19249013981084E-26</v>
+        <v>0.120961791104529</v>
       </c>
       <c r="D14" s="1">
-        <v>14.9977746280038</v>
+        <v>5.6940824788579301</v>
       </c>
       <c r="E14" s="1">
-        <v>1.05451268922616E-10</v>
+        <v>1.4754313277661601E-3</v>
       </c>
       <c r="F14" s="1">
-        <v>17.881824482041601</v>
+        <v>11.838016415830101</v>
       </c>
       <c r="G14" s="1">
-        <v>1.07318606753065E-3</v>
+        <v>6.4299909373868296E-3</v>
       </c>
       <c r="H14" s="1">
-        <v>11.950626419974601</v>
+        <v>0.91911647796912199</v>
       </c>
       <c r="I14" s="1">
-        <v>2.6581195891148901E-21</v>
+        <v>0.109921491079321</v>
       </c>
       <c r="J14" s="1">
-        <v>2.9751599747145501</v>
+        <v>-1.43143612056932</v>
       </c>
       <c r="K14" s="1">
-        <v>3.2468381886841501E-2</v>
+        <v>0.24107498828464299</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>79.595635252852404</v>
+        <v>213.74235382801601</v>
       </c>
       <c r="C15" s="1">
-        <v>5.6223513489123797E-7</v>
+        <v>1.19249013981084E-26</v>
       </c>
       <c r="D15" s="1">
-        <v>13.753547338407399</v>
+        <v>14.9977746280038</v>
       </c>
       <c r="E15" s="1">
-        <v>8.5953482586066305E-5</v>
+        <v>1.05451268922616E-10</v>
       </c>
       <c r="F15" s="1">
-        <v>42.711446098280398</v>
+        <v>17.881824482041601</v>
       </c>
       <c r="G15" s="1">
-        <v>2.86226965023266E-5</v>
+        <v>1.07318606753065E-3</v>
       </c>
       <c r="H15" s="1">
-        <v>11.088079571393701</v>
+        <v>11.950626419974601</v>
       </c>
       <c r="I15" s="1">
-        <v>3.1340744209368002E-9</v>
+        <v>2.6581195891148901E-21</v>
       </c>
       <c r="J15" s="1">
-        <v>-1.83465501882681</v>
+        <v>2.9751599747145501</v>
       </c>
       <c r="K15" s="1">
-        <v>0.26812912146887002</v>
+        <v>3.2468381886841501E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>17.321584122786199</v>
+        <v>79.595635252852404</v>
       </c>
       <c r="C16" s="1">
-        <v>0.26244470368484302</v>
+        <v>5.6223513489123797E-7</v>
       </c>
       <c r="D16" s="1">
-        <v>5.0900053684105302</v>
+        <v>13.753547338407399</v>
       </c>
       <c r="E16" s="1">
-        <v>2.2680411483552401E-2</v>
+        <v>8.5953482586066305E-5</v>
       </c>
       <c r="F16" s="1">
-        <v>8.3440462829099697</v>
+        <v>42.711446098280398</v>
       </c>
       <c r="G16" s="1">
-        <v>0.25901199932258701</v>
+        <v>2.86226965023266E-5</v>
       </c>
       <c r="H16" s="1">
-        <v>4.6099382662895501</v>
+        <v>11.088079571393701</v>
       </c>
       <c r="I16" s="1">
-        <v>0.115810956790716</v>
+        <v>3.1340744209368002E-9</v>
       </c>
       <c r="J16" s="1">
-        <v>1.1670691937862601</v>
+        <v>-1.83465501882681</v>
       </c>
       <c r="K16" s="1">
-        <v>0.63364998518496796</v>
+        <v>0.26812912146887002</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>-17.6551194418394</v>
+        <v>17.321584122786199</v>
       </c>
       <c r="C17" s="1">
-        <v>0.21200932618108301</v>
+        <v>0.26244470368484302</v>
       </c>
       <c r="D17" s="1">
-        <v>1.6570644412736799</v>
+        <v>5.0900053684105302</v>
       </c>
       <c r="E17" s="1">
-        <v>0.41709541291646401</v>
+        <v>2.2680411483552401E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>-3.3594241289226101</v>
+        <v>8.3440462829099697</v>
       </c>
       <c r="G17" s="1">
-        <v>0.66139692074869305</v>
+        <v>0.25901199932258701</v>
       </c>
       <c r="H17" s="1">
-        <v>-1.3785869823833701</v>
+        <v>4.6099382662895501</v>
       </c>
       <c r="I17" s="1">
-        <v>0.37905924413741698</v>
+        <v>0.115810956790716</v>
       </c>
       <c r="J17" s="1">
-        <v>-6.2522928199241603</v>
+        <v>1.1670691937862601</v>
       </c>
       <c r="K17" s="1">
-        <v>4.6158768432519402E-4</v>
+        <v>0.63364998518496796</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>53.362110455598803</v>
+        <v>-17.6551194418394</v>
       </c>
       <c r="C18" s="1">
-        <v>1.2960131151771301E-9</v>
+        <v>0.21200932618108301</v>
       </c>
       <c r="D18" s="1">
-        <v>1.8436699075711001</v>
+        <v>1.6570644412736799</v>
       </c>
       <c r="E18" s="1">
-        <v>0.32029859437782199</v>
+        <v>0.41709541291646401</v>
       </c>
       <c r="F18" s="1">
-        <v>18.400028013947399</v>
+        <v>-3.3594241289226101</v>
       </c>
       <c r="G18" s="1">
-        <v>7.5853305620258302E-5</v>
+        <v>0.66139692074869305</v>
       </c>
       <c r="H18" s="1">
-        <v>3.5905017319904502</v>
+        <v>-1.3785869823833701</v>
       </c>
       <c r="I18" s="1">
-        <v>1.18863458546952E-6</v>
+        <v>0.37905924413741698</v>
       </c>
       <c r="J18" s="1">
-        <v>4.5951919808029302</v>
+        <v>-6.2522928199241603</v>
       </c>
       <c r="K18" s="1">
-        <v>1.81258082412898E-3</v>
+        <v>4.6158768432519402E-4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>35.803215942028899</v>
+        <v>53.362110455598803</v>
       </c>
       <c r="C19" s="1">
-        <v>4.8803224448470503E-2</v>
+        <v>1.2960131151771301E-9</v>
       </c>
       <c r="D19" s="1">
-        <v>11.2215871644734</v>
+        <v>1.8436699075711001</v>
       </c>
       <c r="E19" s="1">
-        <v>2.1003296098885699E-3</v>
+        <v>0.32029859437782199</v>
       </c>
       <c r="F19" s="1">
-        <v>-3.31265220866152</v>
+        <v>18.400028013947399</v>
       </c>
       <c r="G19" s="1">
-        <v>0.58355086436552295</v>
+        <v>7.5853305620258302E-5</v>
       </c>
       <c r="H19" s="1">
-        <v>0.82472916451747902</v>
+        <v>3.5905017319904502</v>
       </c>
       <c r="I19" s="1">
-        <v>0.65108938436307495</v>
+        <v>1.18863458546952E-6</v>
       </c>
       <c r="J19" s="1">
-        <v>7.3282535618877498</v>
+        <v>4.5951919808029302</v>
       </c>
       <c r="K19" s="1">
-        <v>4.0923196429145603E-2</v>
+        <v>1.81258082412898E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>-3.6566349721222902</v>
+        <v>35.803215942028899</v>
       </c>
       <c r="C20" s="1">
-        <v>0.59134131452087102</v>
+        <v>4.8803224448470503E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>2.12376025736596</v>
+        <v>11.2215871644734</v>
       </c>
       <c r="E20" s="1">
-        <v>0.16922991004378701</v>
+        <v>2.1003296098885699E-3</v>
       </c>
       <c r="F20" s="1">
-        <v>0.86197254816360103</v>
+        <v>-3.31265220866152</v>
       </c>
       <c r="G20" s="1">
-        <v>0.849526784794295</v>
+        <v>0.58355086436552295</v>
       </c>
       <c r="H20" s="1">
-        <v>1.5699246728079601</v>
+        <v>0.82472916451747902</v>
       </c>
       <c r="I20" s="1">
-        <v>3.1382905283397003E-2</v>
+        <v>0.65108938436307495</v>
       </c>
       <c r="J20" s="1">
-        <v>3.4016612961736699</v>
+        <v>7.3282535618877498</v>
       </c>
       <c r="K20" s="1">
-        <v>1.10145454351184E-2</v>
+        <v>4.0923196429145603E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>6.6079768100257299</v>
+        <v>-3.6566349721222902</v>
       </c>
       <c r="C21" s="1">
-        <v>0.18962448263894</v>
+        <v>0.59134131452087102</v>
       </c>
       <c r="D21" s="1">
-        <v>3.2626273603981701</v>
+        <v>2.12376025736596</v>
       </c>
       <c r="E21" s="1">
-        <v>4.8138368016521701E-2</v>
+        <v>0.16922991004378701</v>
       </c>
       <c r="F21" s="1">
-        <v>10.136628387631999</v>
+        <v>0.86197254816360103</v>
       </c>
       <c r="G21" s="1">
-        <v>8.2878935297970406E-3</v>
+        <v>0.849526784794295</v>
       </c>
       <c r="H21" s="1">
-        <v>-0.67889364574331801</v>
+        <v>1.5699246728079601</v>
       </c>
       <c r="I21" s="1">
-        <v>0.26547662362464097</v>
+        <v>3.1382905283397003E-2</v>
       </c>
       <c r="J21" s="1">
-        <v>1.8648304503295201</v>
+        <v>3.4016612961736699</v>
       </c>
       <c r="K21" s="1">
-        <v>0.16071926392847499</v>
+        <v>1.10145454351184E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>18.913728455121799</v>
+        <v>6.6079768100257299</v>
       </c>
       <c r="C22" s="1">
-        <v>0.312339744348127</v>
+        <v>0.18962448263894</v>
       </c>
       <c r="D22" s="1">
-        <v>5.2800241532036498</v>
+        <v>3.2626273603981701</v>
       </c>
       <c r="E22" s="1">
-        <v>5.2957240611914799E-2</v>
+        <v>4.8138368016521701E-2</v>
       </c>
       <c r="F22" s="1">
-        <v>5.2219660291716101</v>
+        <v>10.136628387631999</v>
       </c>
       <c r="G22" s="1">
-        <v>0.55279838518301305</v>
+        <v>8.2878935297970406E-3</v>
       </c>
       <c r="H22" s="1">
-        <v>-3.1170275196469999</v>
+        <v>-0.67889364574331801</v>
       </c>
       <c r="I22" s="1">
-        <v>5.6078735824271397E-3</v>
+        <v>0.26547662362464097</v>
       </c>
       <c r="J22" s="1">
-        <v>0.86809164027821695</v>
+        <v>1.8648304503295201</v>
       </c>
       <c r="K22" s="1">
-        <v>0.62432998527983996</v>
+        <v>0.16071926392847499</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>-9.1866670595922099E-5</v>
+        <v>18.913728455121799</v>
       </c>
       <c r="C23" s="1">
-        <v>4.8458656174116298E-7</v>
+        <v>0.312339744348127</v>
       </c>
       <c r="D23" s="1">
-        <v>-1.11369435474036E-5</v>
+        <v>5.2800241532036498</v>
       </c>
       <c r="E23" s="1">
-        <v>1.5836106839724698E-5</v>
+        <v>5.2957240611914799E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>-3.7607053688705299E-6</v>
+        <v>5.2219660291716101</v>
       </c>
       <c r="G23" s="1">
-        <v>0.58268106300528599</v>
+        <v>0.55279838518301305</v>
       </c>
       <c r="H23" s="1">
-        <v>-3.6027422148210501E-6</v>
+        <v>-3.1170275196469999</v>
       </c>
       <c r="I23" s="1">
-        <v>5.1849281488330998E-2</v>
+        <v>5.6078735824271397E-3</v>
       </c>
       <c r="J23" s="1">
-        <v>-4.6646069861554601E-6</v>
+        <v>0.86809164027821695</v>
       </c>
       <c r="K23" s="1">
-        <v>6.08876093413473E-2</v>
+        <v>0.62432998527983996</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>-7.5732043032219503</v>
+        <v>-9.1866670595922099E-5</v>
       </c>
       <c r="C24" s="1">
-        <v>7.2338569945550907E-2</v>
+        <v>4.8458656174116298E-7</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.98901362334087894</v>
+        <v>-1.11369435474036E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>5.19293914237305E-2</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>1.5836106839724698E-5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-3.7607053688705299E-6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.58268106300528599</v>
+      </c>
       <c r="H24" s="1">
-        <v>0.17223538268580901</v>
+        <v>-3.6027422148210501E-6</v>
       </c>
       <c r="I24" s="1">
-        <v>0.66340971718816399</v>
+        <v>5.1849281488330998E-2</v>
       </c>
       <c r="J24" s="1">
-        <v>-0.12270058596198501</v>
+        <v>-4.6646069861554601E-6</v>
       </c>
       <c r="K24" s="1">
-        <v>0.75428139881133405</v>
+        <v>6.08876093413473E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1">
-        <v>-11.152131366915199</v>
+        <v>-7.5732043032219503</v>
       </c>
       <c r="C25" s="1">
-        <v>1.9444220203262499E-2</v>
+        <v>7.2338569945550907E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>-1.5749869225502</v>
+        <v>-0.98901362334087894</v>
       </c>
       <c r="E25" s="1">
-        <v>2.6763935526810799E-2</v>
+        <v>5.19293914237305E-2</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
-        <v>-0.83609154522258899</v>
+        <v>0.17223538268580901</v>
       </c>
       <c r="I25" s="1">
-        <v>4.5750505679471899E-2</v>
+        <v>0.66340971718816399</v>
       </c>
       <c r="J25" s="1">
-        <v>-0.47644217651781501</v>
+        <v>-0.12270058596198501</v>
       </c>
       <c r="K25" s="1">
-        <v>0.316080170619914</v>
+        <v>0.75428139881133405</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>-12.0654003338199</v>
+        <v>-11.152131366915199</v>
       </c>
       <c r="C26" s="1">
-        <v>6.7258335002752301E-2</v>
+        <v>1.9444220203262499E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.9998348938729298</v>
+        <v>-1.5749869225502</v>
       </c>
       <c r="E26" s="1">
-        <v>4.5400362396866197E-6</v>
+        <v>2.6763935526810799E-2</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
-        <v>-0.65908642479338697</v>
+        <v>-0.83609154522258899</v>
       </c>
       <c r="I26" s="1">
-        <v>0.28475777456433099</v>
+        <v>4.5750505679471899E-2</v>
       </c>
       <c r="J26" s="1">
-        <v>-1.3832142308448401</v>
+        <v>-0.47644217651781501</v>
       </c>
       <c r="K26" s="1">
-        <v>5.5663440981837002E-2</v>
+        <v>0.316080170619914</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>1.7089174845821899</v>
+        <v>-12.0654003338199</v>
       </c>
       <c r="C27" s="1">
-        <v>0.79566780640490797</v>
+        <v>6.7258335002752301E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.40369260522567</v>
+        <v>-3.9998348938729298</v>
       </c>
       <c r="E27" s="1">
-        <v>9.3075951419966996E-2</v>
+        <v>4.5400362396866197E-6</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
-        <v>0.41405665205990899</v>
+        <v>-0.65908642479338697</v>
       </c>
       <c r="I27" s="1">
-        <v>0.67806882024953896</v>
+        <v>0.28475777456433099</v>
       </c>
       <c r="J27" s="1">
-        <v>-1.3354732428287801</v>
+        <v>-1.3832142308448401</v>
       </c>
       <c r="K27" s="1">
-        <v>1.2789299790312399E-2</v>
+        <v>5.5663440981837002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>-14.3535976388532</v>
+        <v>1.7089174845821899</v>
       </c>
       <c r="C28" s="1">
-        <v>3.5358754297662998E-2</v>
+        <v>0.79566780640490797</v>
       </c>
       <c r="D28" s="1">
-        <v>-2.5803240975511001</v>
+        <v>-2.40369260522567</v>
       </c>
       <c r="E28" s="1">
-        <v>8.8824064376194292E-3</v>
+        <v>9.3075951419966996E-2</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
-        <v>1.42579461134158</v>
+        <v>0.41405665205990899</v>
       </c>
       <c r="I28" s="1">
-        <v>0.295950109214839</v>
+        <v>0.67806882024953896</v>
       </c>
       <c r="J28" s="1">
-        <v>3.1851958033388699</v>
+        <v>-1.3354732428287801</v>
       </c>
       <c r="K28" s="1">
-        <v>0.21333103400643699</v>
+        <v>1.2789299790312399E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>-6.2461603520141002</v>
+        <v>-14.3535976388532</v>
       </c>
       <c r="C29" s="1">
-        <v>0.32534676668430002</v>
+        <v>3.5358754297662998E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.23006569174617</v>
+        <v>-2.5803240975511001</v>
       </c>
       <c r="E29" s="1">
-        <v>0.84800760430621702</v>
+        <v>8.8824064376194292E-3</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
-        <v>4.7733635859979501E-2</v>
+        <v>1.42579461134158</v>
       </c>
       <c r="I29" s="1">
-        <v>0.97759074379451905</v>
+        <v>0.295950109214839</v>
       </c>
       <c r="J29" s="1">
-        <v>-0.55494228922817501</v>
+        <v>3.1851958033388699</v>
       </c>
       <c r="K29" s="1">
-        <v>0.66517461278075596</v>
+        <v>0.21333103400643699</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>4.42848450522264E-2</v>
+        <v>-6.2461603520141002</v>
       </c>
       <c r="C30" s="1">
-        <v>0.99669491769331497</v>
+        <v>0.32534676668430002</v>
       </c>
       <c r="D30" s="1">
-        <v>-2.1663760791419602</v>
+        <v>-0.23006569174617</v>
       </c>
       <c r="E30" s="1">
-        <v>0.210833123728487</v>
+        <v>0.84800760430621702</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1">
-        <v>1.2024691387169699</v>
+        <v>4.7733635859979501E-2</v>
       </c>
       <c r="I30" s="1">
-        <v>0.19862073027918201</v>
+        <v>0.97759074379451905</v>
       </c>
       <c r="J30" s="1">
-        <v>-0.30948798897704899</v>
+        <v>-0.55494228922817501</v>
       </c>
       <c r="K30" s="1">
-        <v>0.81341532402318695</v>
+        <v>0.66517461278075596</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>0.11480462533433899</v>
+        <v>4.42848450522264E-2</v>
       </c>
       <c r="C31" s="1">
-        <v>0.99007706693665698</v>
+        <v>0.99669491769331497</v>
       </c>
       <c r="D31" s="1">
-        <v>-4.7776112091433296</v>
+        <v>-2.1663760791419602</v>
       </c>
       <c r="E31" s="1">
-        <v>2.6289701341471899E-3</v>
+        <v>0.210833123728487</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1">
-        <v>-1.69752331228994</v>
+        <v>1.2024691387169699</v>
       </c>
       <c r="I31" s="1">
-        <v>0.20054503985934599</v>
+        <v>0.19862073027918201</v>
       </c>
       <c r="J31" s="1">
-        <v>9.49195591863779E-2</v>
+        <v>-0.30948798897704899</v>
       </c>
       <c r="K31" s="1">
-        <v>0.95781669456911001</v>
+        <v>0.81341532402318695</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>-2.8521771580152802</v>
+        <v>0.11480462533433899</v>
       </c>
       <c r="C32" s="1">
-        <v>0.79637551129476003</v>
+        <v>0.99007706693665698</v>
       </c>
       <c r="D32" s="1">
-        <v>-1.1021732906291699</v>
+        <v>-4.7776112091433296</v>
       </c>
       <c r="E32" s="1">
-        <v>0.38359718086502098</v>
+        <v>2.6289701341471899E-3</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1">
-        <v>2.1859619981221901</v>
+        <v>-1.69752331228994</v>
       </c>
       <c r="I32" s="1">
-        <v>1.8911319313277601E-2</v>
+        <v>0.20054503985934599</v>
       </c>
       <c r="J32" s="1">
-        <v>-1.0320101458153299</v>
+        <v>9.49195591863779E-2</v>
       </c>
       <c r="K32" s="1">
-        <v>0.26807382377451799</v>
+        <v>0.95781669456911001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-2.8521771580152802</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.79637551129476003</v>
+      </c>
       <c r="D33" s="1">
-        <v>0.12832382231460901</v>
+        <v>-1.1021732906291699</v>
       </c>
       <c r="E33" s="1">
-        <v>0.80847472084303595</v>
+        <v>0.38359718086502098</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="H33" s="1">
+        <v>2.1859619981221901</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.8911319313277601E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1.0320101458153299</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.26807382377451799</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1">
+        <v>0.12832382231460901</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.80847472084303595</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -39478,18 +39526,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <v>0.34983484528053699</v>
-      </c>
-      <c r="G35" s="1">
-        <v>8.2678555206633208E-3</v>
-      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -39497,79 +39541,79 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-9.8644986110271393</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.7183849969539301E-2</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1">
-        <v>-1.2709558053518399</v>
-      </c>
-      <c r="I36" s="1">
-        <v>3.4572382368137602E-4</v>
-      </c>
+      <c r="F36" s="1">
+        <v>0.34983484528053699</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8.2678555206633208E-3</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1">
-        <v>-11.766163099860901</v>
+        <v>-9.8644986110271393</v>
       </c>
       <c r="C37" s="1">
-        <v>8.2350301191422108E-3</v>
+        <v>1.7183849969539301E-2</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
-        <v>-1.30987065674424</v>
+        <v>-1.2709558053518399</v>
       </c>
       <c r="I37" s="1">
-        <v>3.0953860570025199E-4</v>
+        <v>3.4572382368137602E-4</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-11.766163099860901</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.2350301191422108E-3</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="1">
+        <v>-1.30987065674424</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.0953860570025199E-4</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>-0.82050268461756504</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.84945580488538297</v>
-      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -39577,17 +39621,17 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
-        <v>-3.8866101804185399E-2</v>
+        <v>-0.82050268461756504</v>
       </c>
       <c r="G40" s="1">
-        <v>0.98007236808065101</v>
+        <v>0.84945580488538297</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -39596,17 +39640,17 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
-        <v>-2.59924402225609</v>
+        <v>-3.8866101804185399E-2</v>
       </c>
       <c r="G41" s="1">
-        <v>0.26987615698606998</v>
+        <v>0.98007236808065101</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -39615,17 +39659,17 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1">
-        <v>-4.3117361807969798</v>
+        <v>-2.59924402225609</v>
       </c>
       <c r="G42" s="1">
-        <v>7.3545296431376694E-2</v>
+        <v>0.26987615698606998</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -39634,17 +39678,17 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1">
-        <v>0.61643550228465305</v>
+        <v>-4.3117361807969798</v>
       </c>
       <c r="G43" s="1">
-        <v>0.89460137795624495</v>
+        <v>7.3545296431376694E-2</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -39653,17 +39697,17 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1">
-        <v>-11.2150083544048</v>
+        <v>0.61643550228465305</v>
       </c>
       <c r="G44" s="1">
-        <v>3.5963329511602797E-2</v>
+        <v>0.89460137795624495</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -39672,17 +39716,17 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1">
-        <v>-1.5997937487654801</v>
+        <v>-11.2150083544048</v>
       </c>
       <c r="G45" s="1">
-        <v>0.527914439647581</v>
+        <v>3.5963329511602797E-2</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -39691,493 +39735,497 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1">
-        <v>7.12460711642085</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.26025358659853298</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1">
-        <v>1.72705859927227</v>
+        <v>-1.5997937487654801</v>
       </c>
       <c r="G46" s="1">
-        <v>0.42196378073083701</v>
+        <v>0.527914439647581</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1">
-        <v>-0.30349452140462502</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.55614244769952204</v>
-      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>-1.01354538795678</v>
+        <v>7.12460711642085</v>
       </c>
       <c r="C47" s="1">
-        <v>0.92678267227936295</v>
+        <v>0.26025358659853298</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <v>0.24766114949248999</v>
+        <v>1.72705859927227</v>
       </c>
       <c r="G47" s="1">
-        <v>0.95908765181417199</v>
+        <v>0.42196378073083701</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1">
-        <v>1.8735933683009302E-2</v>
+        <v>-0.30349452140462502</v>
       </c>
       <c r="K47" s="1">
-        <v>0.983701374878728</v>
+        <v>0.55614244769952204</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>7.4007826646011399</v>
+        <v>-1.01354538795678</v>
       </c>
       <c r="C48" s="1">
-        <v>0.278767732221261</v>
+        <v>0.92678267227936295</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <v>2.0868166980574001</v>
+        <v>0.24766114949248999</v>
       </c>
       <c r="G48" s="1">
-        <v>0.37969713747137201</v>
+        <v>0.95908765181417199</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1">
-        <v>6.7909497896513293E-2</v>
+        <v>1.8735933683009302E-2</v>
       </c>
       <c r="K48" s="1">
-        <v>0.89740876340278897</v>
+        <v>0.983701374878728</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>-2.5780425275810099</v>
+        <v>7.4007826646011399</v>
       </c>
       <c r="C49" s="1">
-        <v>0.56513496365024296</v>
+        <v>0.278767732221261</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1">
-        <v>-1.33294095069015</v>
+        <v>2.0868166980574001</v>
       </c>
       <c r="G49" s="1">
-        <v>0.51714895451773002</v>
+        <v>0.37969713747137201</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1">
-        <v>-0.109347027151928</v>
+        <v>6.7909497896513293E-2</v>
       </c>
       <c r="K49" s="1">
-        <v>0.83143162669072301</v>
+        <v>0.89740876340278897</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
-        <v>9.27682206715712</v>
+        <v>-2.5780425275810099</v>
       </c>
       <c r="C50" s="1">
-        <v>3.9311392269555698E-2</v>
+        <v>0.56513496365024296</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1">
-        <v>4.0589317978341901</v>
+        <v>-1.33294095069015</v>
       </c>
       <c r="G50" s="1">
-        <v>5.0057398578528298E-2</v>
+        <v>0.51714895451773002</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1">
-        <v>0.74837495538847398</v>
+        <v>-0.109347027151928</v>
       </c>
       <c r="K50" s="1">
-        <v>0.328400903328261</v>
+        <v>0.83143162669072301</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>-1.02636450630576</v>
+        <v>9.27682206715712</v>
       </c>
       <c r="C51" s="1">
-        <v>0.90220239327285801</v>
+        <v>3.9311392269555698E-2</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1">
-        <v>-12.164306455644599</v>
+        <v>4.0589317978341901</v>
       </c>
       <c r="G51" s="1">
-        <v>2.38630653449955E-2</v>
+        <v>5.0057398578528298E-2</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1">
-        <v>0.13244573715584601</v>
+        <v>0.74837495538847398</v>
       </c>
       <c r="K51" s="1">
-        <v>0.89323817467897304</v>
+        <v>0.328400903328261</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
-        <v>-0.73599465433662103</v>
+        <v>-1.02636450630576</v>
       </c>
       <c r="C52" s="1">
-        <v>0.95437779402307998</v>
+        <v>0.90220239327285801</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1">
-        <v>-2.8078643069052101</v>
+        <v>-12.164306455644599</v>
       </c>
       <c r="G52" s="1">
-        <v>0.27272708395403999</v>
+        <v>2.38630653449955E-2</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1">
-        <v>2.44872888594589</v>
+        <v>0.13244573715584601</v>
       </c>
       <c r="K52" s="1">
-        <v>3.2739119011287399E-2</v>
+        <v>0.89323817467897304</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-0.73599465433662103</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.95437779402307998</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1">
-        <v>3.7326925838071201</v>
+        <v>-2.8078643069052101</v>
       </c>
       <c r="G53" s="1">
-        <v>1.91392915956962E-2</v>
+        <v>0.27272708395403999</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="J53" s="1">
+        <v>2.44872888594589</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3.2739119011287399E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6.44059757378432</v>
-      </c>
-      <c r="C54" s="1">
-        <v>7.4738170449168903E-2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.72183286441481</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.9419869899150099E-3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1">
-        <v>1.17652593399308</v>
+        <v>3.7326925838071201</v>
       </c>
       <c r="G54" s="1">
-        <v>0.60533209858402004</v>
+        <v>1.91392915956962E-2</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1">
-        <v>0.77770972328119503</v>
-      </c>
-      <c r="K54" s="1">
-        <v>7.8520768940626706E-2</v>
-      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1">
-        <v>11.451349966776601</v>
+        <v>6.44059757378432</v>
       </c>
       <c r="C55" s="1">
-        <v>1.49040487070167E-2</v>
+        <v>7.4738170449168903E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>2.3300831492215601</v>
+        <v>1.72183286441481</v>
       </c>
       <c r="E55" s="1">
-        <v>1.5763412102312899E-4</v>
+        <v>1.9419869899150099E-3</v>
       </c>
       <c r="F55" s="1">
-        <v>2.5665556116447701</v>
+        <v>1.17652593399308</v>
       </c>
       <c r="G55" s="1">
-        <v>0.19684905491792001</v>
+        <v>0.60533209858402004</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <v>0.86896544191604796</v>
+        <v>0.77770972328119503</v>
       </c>
       <c r="K55" s="1">
-        <v>3.26512309563479E-2</v>
+        <v>7.8520768940626706E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>22.910445651654602</v>
+        <v>11.451349966776601</v>
       </c>
       <c r="C56" s="1">
-        <v>2.1206250987030901E-4</v>
+        <v>1.49040487070167E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>5.5107006803637297</v>
+        <v>2.3300831492215601</v>
       </c>
       <c r="E56" s="1">
-        <v>3.8303890805239198E-10</v>
+        <v>1.5763412102312899E-4</v>
       </c>
       <c r="F56" s="1">
-        <v>4.5774941533126796</v>
+        <v>2.5665556116447701</v>
       </c>
       <c r="G56" s="1">
-        <v>4.5005767310668299E-2</v>
+        <v>0.19684905491792001</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1">
-        <v>1.60417379156894</v>
+        <v>0.86896544191604796</v>
       </c>
       <c r="K56" s="1">
-        <v>3.19145782121501E-3</v>
+        <v>3.26512309563479E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
-        <v>30.7628731967452</v>
+        <v>22.910445651654602</v>
       </c>
       <c r="C57" s="1">
-        <v>3.50057400927169E-3</v>
+        <v>2.1206250987030901E-4</v>
       </c>
       <c r="D57" s="1">
-        <v>9.5117362015760101</v>
+        <v>5.5107006803637297</v>
       </c>
       <c r="E57" s="1">
-        <v>5.2374271935916902E-4</v>
+        <v>3.8303890805239198E-10</v>
       </c>
       <c r="F57" s="1">
-        <v>6.9430889332825201</v>
+        <v>4.5774941533126796</v>
       </c>
       <c r="G57" s="1">
-        <v>0.22623150072738199</v>
+        <v>4.5005767310668299E-2</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1">
-        <v>3.2036464321484099</v>
+        <v>1.60417379156894</v>
       </c>
       <c r="K57" s="1">
-        <v>0.103797767252853</v>
+        <v>3.19145782121501E-3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>-9.5683810860632494</v>
+        <v>30.7628731967452</v>
       </c>
       <c r="C58" s="1">
-        <v>0.47604885371842998</v>
+        <v>3.50057400927169E-3</v>
       </c>
       <c r="D58" s="1">
-        <v>7.6369805067990502</v>
+        <v>9.5117362015760101</v>
       </c>
       <c r="E58" s="1">
-        <v>1.2770183675443799E-3</v>
+        <v>5.2374271935916902E-4</v>
       </c>
       <c r="F58" s="1">
-        <v>0.668994827833302</v>
+        <v>6.9430889332825201</v>
       </c>
       <c r="G58" s="1">
-        <v>0.92338653832544904</v>
+        <v>0.22623150072738199</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1">
-        <v>-2.1606122180194101</v>
+        <v>3.2036464321484099</v>
       </c>
       <c r="K58" s="1">
-        <v>8.4877235385805702E-2</v>
+        <v>0.103797767252853</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-9.5683810860632494</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.47604885371842998</v>
+      </c>
       <c r="D59" s="1">
-        <v>0.576094008912301</v>
+        <v>7.6369805067990502</v>
       </c>
       <c r="E59" s="1">
-        <v>0.288750161929473</v>
+        <v>1.2770183675443799E-3</v>
       </c>
       <c r="F59" s="1">
-        <v>-4.4563972514535504</v>
+        <v>0.668994827833302</v>
       </c>
       <c r="G59" s="1">
-        <v>3.2195056480068401E-2</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.72385194279451304</v>
-      </c>
-      <c r="I59" s="1">
-        <v>5.1308017268708199E-2</v>
-      </c>
+        <v>0.92338653832544904</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1">
-        <v>-0.16053364987402</v>
+        <v>-2.1606122180194101</v>
       </c>
       <c r="K59" s="1">
-        <v>0.71289666584183498</v>
+        <v>8.4877235385805702E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1">
-        <v>2.3454204774427501</v>
+        <v>0.576094008912301</v>
       </c>
       <c r="E60" s="1">
-        <v>8.9118574581152094E-3</v>
+        <v>0.288750161929473</v>
       </c>
       <c r="F60" s="1">
-        <v>-2.7199572710980302</v>
+        <v>-4.4563972514535504</v>
       </c>
       <c r="G60" s="1">
-        <v>0.164049098777592</v>
+        <v>3.2195056480068401E-2</v>
       </c>
       <c r="H60" s="1">
-        <v>1.0656347550624901</v>
+        <v>0.72385194279451304</v>
       </c>
       <c r="I60" s="1">
-        <v>4.36177028227323E-3</v>
+        <v>5.1308017268708199E-2</v>
       </c>
       <c r="J60" s="1">
-        <v>0.93371838284848097</v>
+        <v>-0.16053364987402</v>
       </c>
       <c r="K60" s="1">
-        <v>0.14240295329525299</v>
+        <v>0.71289666584183498</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1">
-        <v>-1.04511404914799</v>
+        <v>2.3454204774427501</v>
       </c>
       <c r="E61" s="1">
-        <v>0.25037921068657598</v>
+        <v>8.9118574581152094E-3</v>
       </c>
       <c r="F61" s="1">
-        <v>-11.9359051360849</v>
+        <v>-2.7199572710980302</v>
       </c>
       <c r="G61" s="1">
-        <v>4.2973450962167302E-4</v>
+        <v>0.164049098777592</v>
       </c>
       <c r="H61" s="1">
-        <v>-0.213982763257095</v>
+        <v>1.0656347550624901</v>
       </c>
       <c r="I61" s="1">
-        <v>0.59216584185373999</v>
+        <v>4.36177028227323E-3</v>
       </c>
       <c r="J61" s="1">
-        <v>1.37798142287498</v>
+        <v>0.93371838284848097</v>
       </c>
       <c r="K61" s="1">
-        <v>0.448887175230962</v>
+        <v>0.14240295329525299</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1">
-        <v>1.58041057246915</v>
+        <v>-1.04511404914799</v>
       </c>
       <c r="E62" s="1">
-        <v>2.15594624556921E-2</v>
+        <v>0.25037921068657598</v>
       </c>
       <c r="F62" s="1">
-        <v>4.0440826213305199</v>
+        <v>-11.9359051360849</v>
       </c>
       <c r="G62" s="1">
-        <v>8.1348233992138193E-3</v>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
+        <v>4.2973450962167302E-4</v>
+      </c>
+      <c r="H62" s="1">
+        <v>-0.213982763257095</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.59216584185373999</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1.37798142287498</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0.448887175230962</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="D63" s="1">
+        <v>1.58041057246915</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2.15594624556921E-2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>4.0440826213305199</v>
+      </c>
+      <c r="G63" s="1">
+        <v>8.1348233992138193E-3</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -40185,283 +40233,275 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>-0.25837604390455299</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.62922679588816199</v>
-      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1">
-        <v>2.3686257261921501E-2</v>
-      </c>
-      <c r="I64" s="1">
-        <v>0.95237419729972606</v>
-      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1">
-        <v>3.8765940769337401</v>
+        <v>-0.25837604390455299</v>
       </c>
       <c r="E65" s="1">
-        <v>7.3019802547752505E-2</v>
+        <v>0.62922679588816199</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1">
-        <v>1.52661807553589</v>
+        <v>2.3686257261921501E-2</v>
       </c>
       <c r="I65" s="1">
-        <v>2.0610909493691602E-2</v>
+        <v>0.95237419729972606</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1">
+        <v>3.8765940769337401</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7.3019802547752505E-2</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="1">
+        <v>1.52661807553589</v>
+      </c>
+      <c r="I66" s="1">
+        <v>2.0610909493691602E-2</v>
+      </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.503229472982339</v>
-      </c>
-      <c r="C67" s="1">
-        <v>3.0596763846853301E-10</v>
-      </c>
-      <c r="D67" s="1">
-        <v>3.5413254538612299E-2</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1.80690210195981E-5</v>
-      </c>
-      <c r="F67" s="1">
-        <v>8.1749908697215504E-2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1.2441956948072E-2</v>
-      </c>
-      <c r="H67" s="1">
-        <v>8.5561306846216295E-2</v>
-      </c>
-      <c r="I67" s="1">
-        <v>8.4883719418533301E-27</v>
-      </c>
-      <c r="J67" s="1">
-        <v>5.5618717689287597E-2</v>
-      </c>
-      <c r="K67" s="1">
-        <v>2.7730334062295101E-18</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1">
-        <v>4.9483987617064198E-2</v>
+        <v>0.503229472982339</v>
       </c>
       <c r="C68" s="1">
-        <v>7.4535545836185901E-6</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+        <v>3.0596763846853301E-10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>3.5413254538612299E-2</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.80690210195981E-5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>8.1749908697215504E-2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.2441956948072E-2</v>
+      </c>
       <c r="H68" s="1">
-        <v>6.6584794409928396E-3</v>
+        <v>8.5561306846216295E-2</v>
       </c>
       <c r="I68" s="1">
-        <v>4.3956602246942702E-7</v>
+        <v>8.4883719418533301E-27</v>
       </c>
       <c r="J68" s="1">
-        <v>3.6371813280943899E-3</v>
+        <v>5.5618717689287597E-2</v>
       </c>
       <c r="K68" s="1">
-        <v>7.9313026135547596E-4</v>
+        <v>2.7730334062295101E-18</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1">
-        <v>0.31375340428562198</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0.45808985057318902</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4.9483987617064198E-2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7.4535545836185901E-6</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="1">
+        <v>6.6584794409928396E-3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4.3956602246942702E-7</v>
+      </c>
       <c r="J69" s="1">
-        <v>1.0964237386453199</v>
+        <v>3.6371813280943899E-3</v>
       </c>
       <c r="K69" s="1">
-        <v>9.46087055390291E-2</v>
+        <v>7.9313026135547596E-4</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1">
-        <v>1.7824442814401</v>
+        <v>0.31375340428562198</v>
       </c>
       <c r="E70" s="1">
-        <v>5.8509519445923202E-3</v>
+        <v>0.45808985057318902</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1">
-        <v>1.2106808834317699</v>
+        <v>1.0964237386453199</v>
       </c>
       <c r="K70" s="1">
-        <v>1.50480145626586E-2</v>
+        <v>9.46087055390291E-2</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1">
-        <v>3.22018486116129</v>
+        <v>1.7824442814401</v>
       </c>
       <c r="E71" s="1">
-        <v>1.8343517178938501E-4</v>
+        <v>5.8509519445923202E-3</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1">
-        <v>1.09018803974789</v>
+        <v>1.2106808834317699</v>
       </c>
       <c r="K71" s="1">
-        <v>3.5750405516826102E-2</v>
+        <v>1.50480145626586E-2</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1">
-        <v>5.7432397236968198</v>
+        <v>3.22018486116129</v>
       </c>
       <c r="E72" s="1">
-        <v>4.6327515812000404E-3</v>
+        <v>1.8343517178938501E-4</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1">
-        <v>1.60759444665622</v>
+        <v>1.09018803974789</v>
       </c>
       <c r="K72" s="1">
-        <v>4.8351023497857203E-3</v>
+        <v>3.5750405516826102E-2</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1">
-        <v>0.37470947566488999</v>
+        <v>5.7432397236968198</v>
       </c>
       <c r="E73" s="1">
-        <v>0.73532652815704203</v>
+        <v>4.6327515812000404E-3</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1">
-        <v>1.86532482160258</v>
+        <v>1.60759444665622</v>
       </c>
       <c r="K73" s="1">
-        <v>3.6466953221484598E-2</v>
+        <v>4.8351023497857203E-3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="1">
-        <v>3.3992413045775701E-3</v>
-      </c>
-      <c r="C74" s="1">
-        <v>6.3751646274868802E-3</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1">
-        <v>4.4279616287422104E-3</v>
-      </c>
-      <c r="G74" s="1">
-        <v>6.9240178474638996E-19</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1">
+        <v>0.37470947566488999</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.73532652815704203</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="J74" s="1">
+        <v>1.86532482160258</v>
+      </c>
+      <c r="K74" s="1">
+        <v>3.6466953221484598E-2</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="1">
-        <v>3.29919938972062E-3</v>
+        <v>3.3992413045775701E-3</v>
       </c>
       <c r="C75" s="1">
-        <v>0.118284599912512</v>
-      </c>
-      <c r="D75" s="1">
-        <v>3.5779130326109199E-3</v>
-      </c>
-      <c r="E75" s="1">
-        <v>4.2276702150909601E-11</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+        <v>6.3751646274868802E-3</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1">
+        <v>4.4279616287422104E-3</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6.9240178474638996E-19</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -40469,206 +40509,230 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="1">
-        <v>4.5943457294095396</v>
+        <v>3.29919938972062E-3</v>
       </c>
       <c r="C76" s="1">
-        <v>0.21874643861406901</v>
+        <v>0.118284599912512</v>
       </c>
       <c r="D76" s="1">
-        <v>0.69196599018132199</v>
+        <v>3.5779130326109199E-3</v>
       </c>
       <c r="E76" s="1">
-        <v>0.195687323394761</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0.62023976677801895</v>
-      </c>
-      <c r="G76" s="1">
-        <v>0.72910991351980303</v>
-      </c>
-      <c r="H76" s="1">
-        <v>0.56250266215515599</v>
-      </c>
-      <c r="I76" s="1">
-        <v>0.128476968874318</v>
-      </c>
-      <c r="J76" s="1">
-        <v>1.46823926182105</v>
-      </c>
-      <c r="K76" s="1">
-        <v>5.8483396255520001E-2</v>
-      </c>
+        <v>4.2276702150909601E-11</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1">
-        <v>-3.6800994176181399</v>
+        <v>4.5943457294095396</v>
       </c>
       <c r="C77" s="1">
-        <v>0.50279579530900598</v>
+        <v>0.21874643861406901</v>
       </c>
       <c r="D77" s="1">
-        <v>0.26670184333572</v>
+        <v>0.69196599018132199</v>
       </c>
       <c r="E77" s="1">
-        <v>0.72858632986077598</v>
+        <v>0.195687323394761</v>
       </c>
       <c r="F77" s="1">
-        <v>3.0120773894704098</v>
+        <v>0.62023976677801895</v>
       </c>
       <c r="G77" s="1">
-        <v>0.40572126027413302</v>
+        <v>0.72910991351980303</v>
       </c>
       <c r="H77" s="1">
-        <v>-0.55210133496665803</v>
+        <v>0.56250266215515599</v>
       </c>
       <c r="I77" s="1">
-        <v>0.239747923134455</v>
+        <v>0.128476968874318</v>
       </c>
       <c r="J77" s="1">
-        <v>0.83576480798949704</v>
+        <v>1.46823926182105</v>
       </c>
       <c r="K77" s="1">
-        <v>0.12990268080025999</v>
+        <v>5.8483396255520001E-2</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="B78" s="1">
+        <v>-3.6800994176181399</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.50279579530900598</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.26670184333572</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.72858632986077598</v>
+      </c>
       <c r="F78" s="1">
-        <v>-2.97098190495853</v>
+        <v>3.0120773894704098</v>
       </c>
       <c r="G78" s="1">
-        <v>0.15034120045951699</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+        <v>0.40572126027413302</v>
+      </c>
+      <c r="H78" s="1">
+        <v>-0.55210133496665803</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.239747923134455</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.83576480798949704</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.12990268080025999</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="1">
-        <v>3.73923784769993</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.33968817714579802</v>
-      </c>
-      <c r="D79" s="1">
-        <v>-0.54892014669807598</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.32804953086250899</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1">
-        <v>4.5281389430480097</v>
+        <v>-2.97098190495853</v>
       </c>
       <c r="G79" s="1">
-        <v>3.86963842147795E-2</v>
+        <v>0.15034120045951699</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1">
-        <v>-0.64611642281633797</v>
-      </c>
-      <c r="K79" s="1">
-        <v>8.4783496672868802E-2</v>
-      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3.73923784769993</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.33968817714579802</v>
+      </c>
       <c r="D80" s="1">
-        <v>-0.46537132793980401</v>
+        <v>-0.54892014669807598</v>
       </c>
       <c r="E80" s="1">
-        <v>0.42508451041523099</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1">
-        <v>0.60347694048056499</v>
-      </c>
-      <c r="I80" s="1">
-        <v>0.16318043984872199</v>
-      </c>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+        <v>0.32804953086250899</v>
+      </c>
+      <c r="F80" s="1">
+        <v>4.5281389430480097</v>
+      </c>
+      <c r="G80" s="1">
+        <v>3.86963842147795E-2</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1">
+        <v>-0.64611642281633797</v>
+      </c>
+      <c r="K80" s="1">
+        <v>8.4783496672868802E-2</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="2">
-        <v>-12.6681476684009</v>
-      </c>
-      <c r="C81" s="2">
-        <v>5.2332988829207498E-2</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1">
-        <v>-5.66940706380724</v>
-      </c>
-      <c r="G81" s="1">
-        <v>4.4462443038659698E-2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1">
+        <v>-0.46537132793980401</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.42508451041523099</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="1">
-        <v>-0.74846609206609405</v>
+        <v>0.60347694048056499</v>
       </c>
       <c r="I81" s="1">
-        <v>0.128081907882725</v>
+        <v>0.16318043984872199</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="8" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
+        <v>-12.6681476684009</v>
+      </c>
+      <c r="C82" s="2">
+        <v>5.2332988829207498E-2</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1">
+        <v>-5.66940706380724</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4.4462443038659698E-2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>-0.74846609206609405</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.128081907882725</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="84" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C82 E5:E82 G5:G82 I5:I82 K5:K82">
+  <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="C6:C83 E6:E83 G6:G83 I6:I83 K6:K83">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
